--- a/Results/add_noun/lda-partial.xlsx
+++ b/Results/add_noun/lda-partial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="1706">
   <si>
     <t>id</t>
   </si>
@@ -4021,706 +4021,1009 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>place|like|staff|rude</t>
-  </si>
-  <si>
-    <t>food|good|always|time</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good|wine</t>
-  </si>
-  <si>
-    <t>cart|attendant|lotus|leaf|rice|rice</t>
-  </si>
-  <si>
-    <t>great|food</t>
-  </si>
-  <si>
-    <t>rude</t>
-  </si>
-  <si>
-    <t>service|price</t>
-  </si>
-  <si>
-    <t>service|always</t>
-  </si>
-  <si>
-    <t>duck|breast|visit</t>
-  </si>
-  <si>
-    <t>thing|chicken|edamame|puree</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>sake|list|haze|request</t>
-  </si>
-  <si>
-    <t>great|tuna|good</t>
-  </si>
-  <si>
-    <t>great|service</t>
+    <t>place|like</t>
+  </si>
+  <si>
+    <t>food|salty</t>
+  </si>
+  <si>
+    <t>good|food|outrageously|many</t>
+  </si>
+  <si>
+    <t>duck|confit|foie|terrine|figs|world</t>
+  </si>
+  <si>
+    <t>wine|good|list|value|many|interesting</t>
+  </si>
+  <si>
+    <t>rice|rice|replied|walked|away|lotus|wrapped|back|attendant|asked|leaf|tend</t>
+  </si>
+  <si>
+    <t>food|great|thing</t>
+  </si>
+  <si>
+    <t>table|share</t>
+  </si>
+  <si>
+    <t>service|rice|price</t>
+  </si>
+  <si>
+    <t>service|cool|everything|excellent|cooked|perfection|thing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>food|thing</t>
+  </si>
+  <si>
+    <t>special|thing</t>
+  </si>
+  <si>
+    <t>edamame|pureed|bit|salt</t>
+  </si>
+  <si>
+    <t>made|list|list</t>
+  </si>
+  <si>
+    <t>good|great|spicy|rock|unusually|tuna|awesome|roll|shrimp|tempura|share</t>
+  </si>
+  <si>
+    <t>service|great</t>
+  </si>
+  <si>
+    <t>food|awesome</t>
   </si>
   <si>
     <t>service|friendly</t>
   </si>
   <si>
+    <t>long|like</t>
+  </si>
+  <si>
+    <t>food|great</t>
+  </si>
+  <si>
+    <t>restaurant|sushi|sushi|urchin|judge|heavenly|tend|rose</t>
+  </si>
+  <si>
+    <t>fresh|sushi</t>
+  </si>
+  <si>
+    <t>good|rice|rice|also</t>
+  </si>
+  <si>
+    <t>saturday|rice|sushi|took|price|deal</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>menu|enough</t>
+  </si>
+  <si>
+    <t>food|fresh</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good|food|like|rather</t>
+  </si>
+  <si>
+    <t>like|somosas|chai|dissapointing|dhosas</t>
+  </si>
+  <si>
+    <t>food|like|specify|bland|spicy|also|rather</t>
+  </si>
+  <si>
+    <t>probably|would</t>
+  </si>
+  <si>
+    <t>long|river</t>
+  </si>
+  <si>
+    <t>service|even|food|great|great|great|rice|evening|price|reasonable</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>cosette|path|bistro</t>
+  </si>
+  <si>
+    <t>restaurant|certain</t>
+  </si>
+  <si>
+    <t>even|live</t>
+  </si>
+  <si>
+    <t>rice|overpriced|price</t>
+  </si>
+  <si>
+    <t>good|even</t>
+  </si>
+  <si>
+    <t>meals|life|minnow</t>
+  </si>
+  <si>
+    <t>wine|good|food|menu|great|list</t>
+  </si>
+  <si>
+    <t>fresh|delicious</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>sign|even|food|special|menu|waitstaff</t>
+  </si>
+  <si>
+    <t>good|special|live|atmosphere</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>wine|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>service|food|great|delicious|excellent</t>
+  </si>
+  <si>
+    <t>hostess|point</t>
+  </si>
+  <si>
+    <t>food|bland</t>
+  </si>
+  <si>
+    <t>wine|service|place|food|great|many</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>wine|great</t>
+  </si>
+  <si>
+    <t>people|friendly</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>pizza|way</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>good|review</t>
+  </si>
+  <si>
+    <t>food|sauce</t>
+  </si>
+  <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
+    <t>service|great|friendly</t>
+  </si>
+  <si>
+    <t>end|block</t>
+  </si>
+  <si>
+    <t>place|food</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>food|great|sushi|excellent</t>
+  </si>
+  <si>
+    <t>menu|great</t>
+  </si>
+  <si>
+    <t>great|rice|atmosphere|price</t>
+  </si>
+  <si>
+    <t>good|fresh|roll</t>
+  </si>
+  <si>
+    <t>garden|terrace</t>
+  </si>
+  <si>
+    <t>great|table</t>
+  </si>
+  <si>
+    <t>restaurant|charm|rather|open</t>
+  </si>
+  <si>
+    <t>wine|great|great|rice|price|value</t>
+  </si>
+  <si>
+    <t>good|food</t>
+  </si>
+  <si>
+    <t>like|fresh</t>
+  </si>
+  <si>
+    <t>food|great|great|review</t>
+  </si>
+  <si>
+    <t>service|special|recommend</t>
+  </si>
+  <si>
+    <t>spicy|roll</t>
+  </si>
+  <si>
+    <t>excellent|salty</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>made|wine|rice|fairly|price|drink</t>
+  </si>
+  <si>
+    <t>service|deal</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>food|service</t>
-  </si>
-  <si>
-    <t>prix|fixe|menu|penny|quantity|quality</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>food|like|good</t>
-  </si>
-  <si>
-    <t>nice|service|time|time</t>
-  </si>
-  <si>
-    <t>food|like</t>
-  </si>
-  <si>
-    <t>would|nice</t>
-  </si>
-  <si>
-    <t>river|weehawken|idea|top|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|food|service|price</t>
-  </si>
-  <si>
-    <t>lava|cake|dessert</t>
-  </si>
-  <si>
-    <t>cosette|path|bistro</t>
-  </si>
-  <si>
-    <t>pizza|price</t>
-  </si>
-  <si>
-    <t>good|pizza</t>
-  </si>
-  <si>
-    <t>meals|life|minnow</t>
-  </si>
-  <si>
-    <t>great|food|good|always|wine</t>
-  </si>
-  <si>
-    <t>combination|ingredients|dishes</t>
-  </si>
-  <si>
-    <t>wife|shrimp</t>
-  </si>
-  <si>
-    <t>food|staff</t>
-  </si>
-  <si>
-    <t>atmosphere|good</t>
-  </si>
-  <si>
-    <t>friendly|always|always|staff|never</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|food|service</t>
-  </si>
-  <si>
-    <t>great|food|place|service|always|wine|time</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>great|always|wine</t>
-  </si>
-  <si>
-    <t>friendly|always|time</t>
-  </si>
-  <si>
-    <t>like|pizza</t>
-  </si>
-  <si>
-    <t>toppings</t>
-  </si>
-  <si>
-    <t>great|service|friendly</t>
-  </si>
-  <si>
-    <t>great|service|pizza</t>
-  </si>
-  <si>
-    <t>end|block</t>
-  </si>
-  <si>
-    <t>sushi|city|hands</t>
-  </si>
-  <si>
-    <t>food|place</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>great|food|always</t>
-  </si>
-  <si>
-    <t>great|never</t>
-  </si>
-  <si>
-    <t>great|atmosphere|price</t>
-  </si>
-  <si>
-    <t>menu|lot|choices|dumplings|appetizer|section</t>
-  </si>
-  <si>
-    <t>garden|terrace</t>
-  </si>
-  <si>
-    <t>great|great|price|wine</t>
-  </si>
-  <si>
-    <t>food|good</t>
-  </si>
-  <si>
-    <t>like|pizza|pizza</t>
-  </si>
-  <si>
-    <t>great|great|food</t>
-  </si>
-  <si>
-    <t>nice|service</t>
-  </si>
-  <si>
-    <t>scallop|roll</t>
-  </si>
-  <si>
-    <t>moules|lobster|ravioli</t>
-  </si>
-  <si>
-    <t>always|price|wine</t>
-  </si>
-  <si>
-    <t>chef|specials</t>
-  </si>
-  <si>
-    <t>good|always</t>
-  </si>
-  <si>
-    <t>waitress|table|bathroom|dinner|orders|toilet</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|rude</t>
-  </si>
-  <si>
-    <t>everythig|shows|actors</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>great|great|food|service</t>
-  </si>
-  <si>
-    <t>pizza|pizza|cheap</t>
+    <t>restaurant|romantic</t>
+  </si>
+  <si>
+    <t>food|beautiful|beautifully|presented|delicious</t>
+  </si>
+  <si>
+    <t>wine|rice|price|interesting</t>
+  </si>
+  <si>
+    <t>dinner|table|waitress|want|practically|told|asked|sitting|order</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|away</t>
+  </si>
+  <si>
+    <t>special|especially</t>
+  </si>
+  <si>
+    <t>tuna|excellent</t>
+  </si>
+  <si>
+    <t>even|away|wonderful|atmosphere|evening|outdoor|sidewalk|watching|sitting|cool|avenue</t>
+  </si>
+  <si>
+    <t>service|food|great|great</t>
+  </si>
+  <si>
+    <t>menu|would</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
   <si>
     <t>restaurant|food</t>
   </si>
   <si>
-    <t>would|would</t>
-  </si>
-  <si>
-    <t>sake|menu</t>
-  </si>
-  <si>
-    <t>lobster|teriyaki|roll</t>
+    <t>dining|restaurant</t>
+  </si>
+  <si>
+    <t>service|table</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>live|free|would|would</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>special|roll|rose</t>
   </si>
   <si>
     <t>service|good</t>
   </si>
   <si>
-    <t>good|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|always</t>
-  </si>
-  <si>
-    <t>atmosphere|time</t>
-  </si>
-  <si>
-    <t>meal|nyc</t>
-  </si>
-  <si>
-    <t>food|food</t>
+    <t>good|food|long|wish|order</t>
+  </si>
+  <si>
+    <t>wine|wine|good|list</t>
+  </si>
+  <si>
+    <t>restaurant|rather</t>
+  </si>
+  <si>
+    <t>restaurant|even|evening</t>
+  </si>
+  <si>
+    <t>good|food|table|fresh|order</t>
+  </si>
+  <si>
+    <t>dining|great</t>
+  </si>
+  <si>
+    <t>live|atmosphere|order|completely</t>
+  </si>
+  <si>
+    <t>simply</t>
+  </si>
+  <si>
+    <t>upscale|restaurant</t>
+  </si>
+  <si>
+    <t>made|food|food|delicious</t>
+  </si>
+  <si>
+    <t>food|cool|drink</t>
+  </si>
+  <si>
+    <t>made|place|good</t>
+  </si>
+  <si>
+    <t>made|food|delicious|recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fresh|roll|recommend</t>
+  </si>
+  <si>
+    <t>guests|pizza|santa|fe|salad|fish|chips</t>
+  </si>
+  <si>
+    <t>service|food|wonderful|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|thing</t>
+  </si>
+  <si>
+    <t>tuna|roll|sushi</t>
+  </si>
+  <si>
+    <t>delicious|everything|thing</t>
+  </si>
+  <si>
+    <t>service|rice|price|although|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|food|fresh|fresh|delicious</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy</t>
+  </si>
+  <si>
+    <t>great|people</t>
+  </si>
+  <si>
+    <t>like|atmosphere</t>
+  </si>
+  <si>
+    <t>good|vacation|although|business</t>
+  </si>
+  <si>
+    <t>great|although</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>rice|spicy|tuna|roll|price|probably</t>
+  </si>
+  <si>
+    <t>food|menu|reservation|fairly|deal|probably|order</t>
+  </si>
+  <si>
+    <t>service|food|great|rice|price</t>
+  </si>
+  <si>
+    <t>atmosphere|thing</t>
+  </si>
+  <si>
+    <t>rice|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>caesar|salad|wife|arugula|goat|cheese</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>place|food|delicious</t>
+  </si>
+  <si>
+    <t>even|want|manager</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>wine|place|atmosphere</t>
   </si>
   <si>
     <t>place|good</t>
   </si>
   <si>
-    <t>workers|bagel|cream|cheese</t>
-  </si>
-  <si>
-    <t>food|service|time</t>
-  </si>
-  <si>
-    <t>lobster|roll|mayo|lobster</t>
-  </si>
-  <si>
-    <t>chow|fun|chow|oily</t>
-  </si>
-  <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
-  </si>
-  <si>
-    <t>restaurant|service|good</t>
-  </si>
-  <si>
-    <t>pad|penang|everything</t>
-  </si>
-  <si>
-    <t>hats|chef</t>
-  </si>
-  <si>
-    <t>pam|fish</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>tuna|price</t>
-  </si>
-  <si>
-    <t>great|food|service|price</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>food|place|staff</t>
-  </si>
-  <si>
-    <t>visit|manager</t>
-  </si>
-  <si>
-    <t>food|service|good|time</t>
-  </si>
-  <si>
-    <t>food|service|service|good|good|time|time</t>
-  </si>
-  <si>
-    <t>place|atmosphere|wine</t>
-  </si>
-  <si>
-    <t>place|nice|good|pizza</t>
-  </si>
-  <si>
-    <t>goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>bombay|beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>tuna|like|like</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|time</t>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>service|people|friendly</t>
+  </si>
+  <si>
+    <t>food|delicious|italian</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like|like|tuna</t>
+  </si>
+  <si>
+    <t>service|great|also</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|excellent|review</t>
   </si>
   <si>
     <t>mignon|dish</t>
   </si>
   <si>
-    <t>beef|noodle|soup|dishes|section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine</t>
-  </si>
-  <si>
-    <t>restaurant|price|wine</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>would|service|price</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>menu|order|thing</t>
+  </si>
+  <si>
+    <t>dining|made|wine|service|place|back|excellent</t>
+  </si>
+  <si>
+    <t>place|romantic|review</t>
+  </si>
+  <si>
+    <t>wine|restaurant|menu|typical|table|rice|overpriced|simply|list|italian|close|crammed|price</t>
+  </si>
+  <si>
+    <t>wine|list</t>
+  </si>
+  <si>
+    <t>service|rice|price|would</t>
+  </si>
+  <si>
+    <t>service|charm|italian</t>
+  </si>
+  <si>
+    <t>food|completely</t>
+  </si>
+  <si>
+    <t>made|bland|rose</t>
   </si>
   <si>
     <t>fish</t>
   </si>
   <si>
-    <t>would|place|nice|staff|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>great|place|service</t>
-  </si>
-  <si>
-    <t>great|food|food|food|food|food|like|good|price|price</t>
-  </si>
-  <si>
-    <t>place|place</t>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>also|recommend</t>
+  </si>
+  <si>
+    <t>service|fresh|delicious</t>
+  </si>
+  <si>
+    <t>service|place|cool</t>
+  </si>
+  <si>
+    <t>dining|fresh|music</t>
+  </si>
+  <si>
+    <t>service|menu|tend</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>service|place|special|great|romantic|excellent</t>
+  </si>
+  <si>
+    <t>good|food|food|food|food|food|menu|great|like|rice|rice|price|price</t>
+  </si>
+  <si>
+    <t>place|place|romantic</t>
+  </si>
+  <si>
+    <t>staff|york</t>
   </si>
   <si>
     <t>characters|experience</t>
   </si>
   <si>
-    <t>delivery</t>
+    <t>service|food|although|order</t>
+  </si>
+  <si>
+    <t>rice|price|drink</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>rice|price</t>
   </si>
   <si>
     <t>ambiance|boot</t>
   </si>
   <si>
-    <t>great|nice|service</t>
-  </si>
-  <si>
-    <t>food|service|price|cheap</t>
-  </si>
-  <si>
-    <t>food|price|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>dessert|waitress|bill|chance|order</t>
-  </si>
-  <si>
-    <t>food|place|service|like|price|price</t>
+    <t>special|like|atmosphere|sushi|thing</t>
+  </si>
+  <si>
+    <t>owner|staff|ambiance</t>
+  </si>
+  <si>
+    <t>service|food|rice|price</t>
+  </si>
+  <si>
+    <t>service|asked|people</t>
+  </si>
+  <si>
+    <t>restaurant|romantic|list</t>
+  </si>
+  <si>
+    <t>wine|food|rice|price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>service|food|value</t>
+  </si>
+  <si>
+    <t>service|friendly|excellent</t>
+  </si>
+  <si>
+    <t>waitress|everything|thing</t>
+  </si>
+  <si>
+    <t>waitress|order</t>
+  </si>
+  <si>
+    <t>service|place|food|like|rice|rice|price|price</t>
   </si>
   <si>
     <t>week|dishes</t>
   </si>
   <si>
-    <t>nice|staff</t>
-  </si>
-  <si>
-    <t>service|time|rude</t>
-  </si>
-  <si>
-    <t>restaurant|time|rude</t>
-  </si>
-  <si>
-    <t>price|cheap</t>
-  </si>
-  <si>
-    <t>great|food|cheap</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>restaurant|price</t>
-  </si>
-  <si>
-    <t>food|good|price</t>
-  </si>
-  <si>
-    <t>good|price</t>
-  </si>
-  <si>
-    <t>dessert|candle|anyone|waiter|birthday|card|gift|occassion|sort</t>
+    <t>like|also|thing</t>
+  </si>
+  <si>
+    <t>table|wooden|sitting</t>
+  </si>
+  <si>
+    <t>restaurant|close|rather|busy</t>
+  </si>
+  <si>
+    <t>great|feature|cigar|patroon</t>
+  </si>
+  <si>
+    <t>waitstaff|friendly</t>
+  </si>
+  <si>
+    <t>service|good|good|outing</t>
+  </si>
+  <si>
+    <t>restaurant|fallback|rice|back|price</t>
+  </si>
+  <si>
+    <t>good|even|food|rice|price</t>
+  </si>
+  <si>
+    <t>good|warrant|nearly|rice|price|although|enough</t>
+  </si>
+  <si>
+    <t>special|anyone|came|asked|birthday|said|open</t>
   </si>
   <si>
     <t>mark|waiter</t>
   </si>
   <si>
-    <t>food|nice|cheap</t>
-  </si>
-  <si>
-    <t>great|would|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|food|place|good</t>
-  </si>
-  <si>
-    <t>like|staff</t>
-  </si>
-  <si>
-    <t>dinner|manager|boyfriend|things|america|end|tips|thing</t>
-  </si>
-  <si>
-    <t>tip|model/waitress|manager</t>
-  </si>
-  <si>
-    <t>great|would|place|good|staff</t>
-  </si>
-  <si>
-    <t>great|food|price</t>
-  </si>
-  <si>
-    <t>restaurant|service</t>
-  </si>
-  <si>
-    <t>gentleman|manager|table|smile|order</t>
-  </si>
-  <si>
-    <t>staff|time</t>
-  </si>
-  <si>
-    <t>patio|music</t>
-  </si>
-  <si>
-    <t>garden|area|herb|garden</t>
-  </si>
-  <si>
-    <t>nice|always|never</t>
-  </si>
-  <si>
-    <t>waiter|money|guys|outta</t>
-  </si>
-  <si>
-    <t>bit|menu</t>
-  </si>
-  <si>
-    <t>food|cheap</t>
-  </si>
-  <si>
-    <t>great|place</t>
-  </si>
-  <si>
-    <t>place|price</t>
-  </si>
-  <si>
-    <t>cheese|sandwich|manager|business</t>
-  </si>
-  <si>
-    <t>great|like</t>
-  </si>
-  <si>
-    <t>food|price</t>
-  </si>
-  <si>
-    <t>great|great</t>
-  </si>
-  <si>
-    <t>restaurant|staff</t>
-  </si>
-  <si>
-    <t>service|atmosphere|friendly</t>
-  </si>
-  <si>
-    <t>would|place|service</t>
+    <t>wine|rice|list|price</t>
+  </si>
+  <si>
+    <t>great|atmosphere|write|review|would</t>
+  </si>
+  <si>
+    <t>place|good|food|great|great|deal</t>
+  </si>
+  <si>
+    <t>like|people</t>
+  </si>
+  <si>
+    <t>service|people|everything|thing|thing</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>dinner|away|asked|manager|survive|thing|thing</t>
+  </si>
+  <si>
+    <t>waitress|want|manager</t>
+  </si>
+  <si>
+    <t>place|good|great|wish|unprofessional|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>food|great|rice|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|back</t>
+  </si>
+  <si>
+    <t>table|came|asked|order|manager</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>table|outside</t>
+  </si>
+  <si>
+    <t>staff|bathroom</t>
+  </si>
+  <si>
+    <t>made|waitstaff|table</t>
+  </si>
+  <si>
+    <t>back|cool|music</t>
+  </si>
+  <si>
+    <t>service|good|also</t>
+  </si>
+  <si>
+    <t>back|sitting</t>
+  </si>
+  <si>
+    <t>place|special|especially|money|stand|wonderful|value</t>
+  </si>
+  <si>
+    <t>service|excellent</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>even|rice|price</t>
+  </si>
+  <si>
+    <t>paid|money|said|immediately|outta|took</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>place|outside</t>
+  </si>
+  <si>
+    <t>restaurant|river|beautiful</t>
+  </si>
+  <si>
+    <t>place|great|watching</t>
+  </si>
+  <si>
+    <t>service|thing</t>
+  </si>
+  <si>
+    <t>place|rice|price</t>
+  </si>
+  <si>
+    <t>told|asked|business|open|manager</t>
+  </si>
+  <si>
+    <t>place|even</t>
+  </si>
+  <si>
+    <t>great|like|want|music|minimun|dollar|system</t>
+  </si>
+  <si>
+    <t>winnie|staff|crew</t>
+  </si>
+  <si>
+    <t>food|rice|price</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>atmosphere|free</t>
+  </si>
+  <si>
+    <t>great|great|music|completely|shanty|recommend|drink|delish</t>
+  </si>
+  <si>
+    <t>good|outrageously|saturday|music</t>
+  </si>
+  <si>
+    <t>good|rice|back|price|reasonable</t>
+  </si>
+  <si>
+    <t>great|feature|outside</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>rice|stand|price</t>
+  </si>
+  <si>
+    <t>typical|long|like|table|atmosphere</t>
+  </si>
+  <si>
+    <t>service|friendly|atmosphere</t>
+  </si>
+  <si>
+    <t>service|place|stand|would</t>
   </si>
   <si>
     <t>management</t>
   </si>
   <si>
-    <t>great|price</t>
-  </si>
-  <si>
-    <t>place|like|staff|time</t>
-  </si>
-  <si>
-    <t>place|good|cheap</t>
-  </si>
-  <si>
-    <t>great|place|place|service|never</t>
+    <t>great|rice|price</t>
+  </si>
+  <si>
+    <t>place|like|excellent</t>
+  </si>
+  <si>
+    <t>service|food|great|great|great|rice|price</t>
+  </si>
+  <si>
+    <t>service|place|place|dinner|great|live|romantic|table|want|also</t>
+  </si>
+  <si>
+    <t>service|back</t>
+  </si>
+  <si>
+    <t>place|beautiful</t>
   </si>
   <si>
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>atomosphere|tables</t>
-  </si>
-  <si>
-    <t>great|great|food|place|price</t>
-  </si>
-  <si>
-    <t>summer|patio</t>
-  </si>
-  <si>
-    <t>great|food|good|price|wine</t>
-  </si>
-  <si>
-    <t>food|would|price</t>
-  </si>
-  <si>
-    <t>money|decor</t>
-  </si>
-  <si>
-    <t>food|good|cheap</t>
-  </si>
-  <si>
-    <t>good|wine|cheap</t>
-  </si>
-  <si>
-    <t>jukebox|everything|opera|strokes</t>
-  </si>
-  <si>
-    <t>drinks|half|pm</t>
+    <t>restaurant|typical</t>
+  </si>
+  <si>
+    <t>romantic|table</t>
+  </si>
+  <si>
+    <t>place|food|great|great|want|rice|price</t>
+  </si>
+  <si>
+    <t>dining|outside|sitting</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>place|food|money</t>
+  </si>
+  <si>
+    <t>friendly|outdoor</t>
+  </si>
+  <si>
+    <t>wine|good|food|great|rice|price|selecion|reasonable</t>
+  </si>
+  <si>
+    <t>good|rice|overpriced|price|everything|thing</t>
+  </si>
+  <si>
+    <t>food|rice|price|would</t>
+  </si>
+  <si>
+    <t>place|great</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>sign|good|atmosphere</t>
+  </si>
+  <si>
+    <t>wine|good</t>
+  </si>
+  <si>
+    <t>italian|everything|thing</t>
+  </si>
+  <si>
+    <t>drink</t>
   </si>
   <si>
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>location|delight|seating|yorkie</t>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>food|great|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>good|food|rice|simply|price</t>
   </si>
   <si>
     <t>jazz|duo|point</t>
   </si>
   <si>
-    <t>great|food|service|good|price</t>
-  </si>
-  <si>
-    <t>nice|atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant|food|friendly|like|good|price|price|staff|time|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|good|price|staff</t>
-  </si>
-  <si>
-    <t>food|service|price</t>
-  </si>
-  <si>
-    <t>food|nice|price</t>
-  </si>
-  <si>
-    <t>place|nice|tuna</t>
-  </si>
-  <si>
-    <t>place|time</t>
-  </si>
-  <si>
-    <t>restaurant|nice</t>
-  </si>
-  <si>
-    <t>dinner|manhattan|feet</t>
-  </si>
-  <si>
-    <t>plate|guacamole</t>
-  </si>
-  <si>
-    <t>food|place|good</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece</t>
-  </si>
-  <si>
-    <t>food|friendly|good|price</t>
+    <t>service|good|food|great|rice|price|music</t>
+  </si>
+  <si>
+    <t>restaurant|good|food|like|rice|rice|rice|friendly|avenue|avenue|price|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|food|rice|overpriced|price|many</t>
+  </si>
+  <si>
+    <t>food|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>place|tuna</t>
+  </si>
+  <si>
+    <t>paid|good</t>
+  </si>
+  <si>
+    <t>place|away</t>
+  </si>
+  <si>
+    <t>place|dinner|great</t>
+  </si>
+  <si>
+    <t>nearly|back|atmosphere|thing</t>
+  </si>
+  <si>
+    <t>food|great|rice|price|excellent</t>
+  </si>
+  <si>
+    <t>service|food|rice|overpriced|price</t>
+  </si>
+  <si>
+    <t>dinner|romatic</t>
+  </si>
+  <si>
+    <t>place|good|food</t>
+  </si>
+  <si>
+    <t>place|beautiful|recommend</t>
+  </si>
+  <si>
+    <t>table|told</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>sign|restaurant|beautiful|beautifully</t>
+  </si>
+  <si>
+    <t>good|food|rice|people|friendly|price</t>
   </si>
   <si>
     <t>bathroom|mens|bathroom</t>
   </si>
   <si>
-    <t>would|price</t>
-  </si>
-  <si>
-    <t>boths|reviews|people</t>
+    <t>rice|price|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
+  </si>
+  <si>
+    <t>people|review</t>
   </si>
   <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
-    <t>great|great|place</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
-  </si>
-  <si>
-    <t>environment|name</t>
+    <t>place|great|great|value</t>
+  </si>
+  <si>
+    <t>rice|fairly|price</t>
+  </si>
+  <si>
+    <t>back|awesome|birthday</t>
+  </si>
+  <si>
+    <t>wine|dinner</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>place|certain|want|beautiful</t>
+  </si>
+  <si>
+    <t>restaurant|review</t>
   </si>
   <si>
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|lot|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>food|would|good|time</t>
-  </si>
-  <si>
-    <t>restaurant|never</t>
-  </si>
-  <si>
-    <t>restaurant|would|place|price</t>
+    <t>environment|trophy|upscale|paid</t>
+  </si>
+  <si>
+    <t>back|money|value</t>
+  </si>
+  <si>
+    <t>dinner|would</t>
+  </si>
+  <si>
+    <t>good|food|dinner|table|would</t>
+  </si>
+  <si>
+    <t>restaurant|money</t>
+  </si>
+  <si>
+    <t>good|food|fresh</t>
+  </si>
+  <si>
+    <t>upscale|upscale|place|restaurant|rice|rice|price|would</t>
+  </si>
+  <si>
+    <t>place|food|thing</t>
   </si>
   <si>
     <t>lunch|buffet</t>
   </si>
   <si>
-    <t>stone|bowl</t>
-  </si>
-  <si>
-    <t>party|bbe|fixe|prix|menu|deal|flight|sake</t>
-  </si>
-  <si>
-    <t>great|good|price|time</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>great|service|good</t>
-  </si>
-  <si>
-    <t>food|would|good|price</t>
-  </si>
-  <si>
-    <t>decor|distraction|bucks|eggplant|frickin|hours</t>
+    <t>place|dinner|romantic|deal</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>menu|came|wonderful|also|deal</t>
+  </si>
+  <si>
+    <t>good|great|rice|price|enough|reasonable|thing</t>
+  </si>
+  <si>
+    <t>service|even|drink</t>
+  </si>
+  <si>
+    <t>service|good|great|fresh|sauce|kimchi|free</t>
+  </si>
+  <si>
+    <t>good|food|rice|back|price|would</t>
+  </si>
+  <si>
+    <t>restaurant|bland|took</t>
+  </si>
+  <si>
+    <t>menu|list|would|dollar|reasonable</t>
   </si>
   <si>
     <t>negative</t>
@@ -5232,7 +5535,7 @@
         <v>1335</v>
       </c>
       <c r="G2" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5252,10 +5555,10 @@
         <v>1275</v>
       </c>
       <c r="F3" t="s">
-        <v>936</v>
+        <v>1336</v>
       </c>
       <c r="G3" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5275,10 +5578,10 @@
         <v>1276</v>
       </c>
       <c r="F4" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5298,10 +5601,10 @@
         <v>1275</v>
       </c>
       <c r="F5" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5321,10 +5624,10 @@
         <v>1277</v>
       </c>
       <c r="F6" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5344,10 +5647,10 @@
         <v>1274</v>
       </c>
       <c r="F7" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5367,10 +5670,10 @@
         <v>1276</v>
       </c>
       <c r="F8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5390,10 +5693,10 @@
         <v>1275</v>
       </c>
       <c r="F9" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5413,10 +5716,10 @@
         <v>1278</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5436,10 +5739,10 @@
         <v>1279</v>
       </c>
       <c r="F11" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5459,10 +5762,10 @@
         <v>1276</v>
       </c>
       <c r="F12" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5482,10 +5785,10 @@
         <v>1280</v>
       </c>
       <c r="F13" t="s">
-        <v>936</v>
+        <v>1346</v>
       </c>
       <c r="G13" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5505,10 +5808,10 @@
         <v>1276</v>
       </c>
       <c r="F14" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="G14" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5528,10 +5831,10 @@
         <v>1275</v>
       </c>
       <c r="F15" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G15" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5554,7 +5857,7 @@
         <v>1092</v>
       </c>
       <c r="G16" t="s">
-        <v>1576</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5574,10 +5877,10 @@
         <v>1282</v>
       </c>
       <c r="F17" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G17" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5597,10 +5900,10 @@
         <v>1275</v>
       </c>
       <c r="F18" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G18" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5620,10 +5923,10 @@
         <v>1274</v>
       </c>
       <c r="F19" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G19" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5643,10 +5946,10 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>936</v>
+        <v>1352</v>
       </c>
       <c r="G20" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5666,10 +5969,10 @@
         <v>1274</v>
       </c>
       <c r="F21" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G21" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5692,7 +5995,7 @@
         <v>1123</v>
       </c>
       <c r="G22" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5715,7 +6018,7 @@
         <v>936</v>
       </c>
       <c r="G23" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5738,7 +6041,7 @@
         <v>951</v>
       </c>
       <c r="G24" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5758,10 +6061,10 @@
         <v>1274</v>
       </c>
       <c r="F25" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G25" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5781,10 +6084,10 @@
         <v>1276</v>
       </c>
       <c r="F26" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
       <c r="G26" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5807,7 +6110,7 @@
         <v>951</v>
       </c>
       <c r="G27" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5827,10 +6130,10 @@
         <v>1276</v>
       </c>
       <c r="F28" t="s">
-        <v>971</v>
+        <v>1356</v>
       </c>
       <c r="G28" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5850,10 +6153,10 @@
         <v>1275</v>
       </c>
       <c r="F29" t="s">
-        <v>999</v>
+        <v>1357</v>
       </c>
       <c r="G29" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5873,10 +6176,10 @@
         <v>1276</v>
       </c>
       <c r="F30" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="G30" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5896,10 +6199,10 @@
         <v>1277</v>
       </c>
       <c r="F31" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="G31" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5919,10 +6222,10 @@
         <v>1282</v>
       </c>
       <c r="F32" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="G32" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5942,10 +6245,10 @@
         <v>1284</v>
       </c>
       <c r="F33" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="G33" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5965,10 +6268,10 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>936</v>
+        <v>1362</v>
       </c>
       <c r="G34" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5988,10 +6291,10 @@
         <v>1276</v>
       </c>
       <c r="F35" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G35" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6011,10 +6314,10 @@
         <v>1282</v>
       </c>
       <c r="F36" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="G36" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6034,10 +6337,10 @@
         <v>1285</v>
       </c>
       <c r="F37" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="G37" t="s">
-        <v>1578</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6057,10 +6360,10 @@
         <v>1274</v>
       </c>
       <c r="F38" t="s">
-        <v>1358</v>
+        <v>951</v>
       </c>
       <c r="G38" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6080,10 +6383,10 @@
         <v>1274</v>
       </c>
       <c r="F39" t="s">
-        <v>1337</v>
+        <v>965</v>
       </c>
       <c r="G39" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6103,10 +6406,10 @@
         <v>1276</v>
       </c>
       <c r="F40" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="G40" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6126,10 +6429,10 @@
         <v>1283</v>
       </c>
       <c r="F41" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="G41" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6149,10 +6452,10 @@
         <v>1283</v>
       </c>
       <c r="F42" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="G42" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6172,10 +6475,10 @@
         <v>1278</v>
       </c>
       <c r="F43" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
       <c r="G43" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6195,10 +6498,10 @@
         <v>1276</v>
       </c>
       <c r="F44" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="G44" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6218,10 +6521,10 @@
         <v>1283</v>
       </c>
       <c r="F45" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
       <c r="G45" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6241,10 +6544,10 @@
         <v>1283</v>
       </c>
       <c r="F46" t="s">
-        <v>971</v>
+        <v>1372</v>
       </c>
       <c r="G46" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6267,7 +6570,7 @@
         <v>936</v>
       </c>
       <c r="G47" t="s">
-        <v>1579</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6290,7 +6593,7 @@
         <v>936</v>
       </c>
       <c r="G48" t="s">
-        <v>1580</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6310,10 +6613,10 @@
         <v>1275</v>
       </c>
       <c r="F49" t="s">
-        <v>992</v>
+        <v>1373</v>
       </c>
       <c r="G49" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6333,10 +6636,10 @@
         <v>1277</v>
       </c>
       <c r="F50" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="G50" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6356,10 +6659,10 @@
         <v>1280</v>
       </c>
       <c r="F51" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G51" t="s">
-        <v>1581</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6379,10 +6682,10 @@
         <v>1276</v>
       </c>
       <c r="F52" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G52" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6402,10 +6705,10 @@
         <v>1280</v>
       </c>
       <c r="F53" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="G53" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6425,10 +6728,10 @@
         <v>1276</v>
       </c>
       <c r="F54" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="G54" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6448,10 +6751,10 @@
         <v>1275</v>
       </c>
       <c r="F55" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6471,10 +6774,10 @@
         <v>1275</v>
       </c>
       <c r="F56" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="G56" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6494,10 +6797,10 @@
         <v>1288</v>
       </c>
       <c r="F57" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G57" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6517,10 +6820,10 @@
         <v>1289</v>
       </c>
       <c r="F58" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="G58" t="s">
-        <v>1583</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6540,10 +6843,10 @@
         <v>1274</v>
       </c>
       <c r="F59" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="G59" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6563,10 +6866,10 @@
         <v>1277</v>
       </c>
       <c r="F60" t="s">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="G60" t="s">
-        <v>1584</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6586,10 +6889,10 @@
         <v>1290</v>
       </c>
       <c r="F61" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="G61" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6609,10 +6912,10 @@
         <v>1274</v>
       </c>
       <c r="F62" t="s">
-        <v>1341</v>
+        <v>1385</v>
       </c>
       <c r="G62" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6632,10 +6935,10 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>936</v>
+        <v>1386</v>
       </c>
       <c r="G63" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6655,10 +6958,10 @@
         <v>1288</v>
       </c>
       <c r="F64" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="G64" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6678,10 +6981,10 @@
         <v>1274</v>
       </c>
       <c r="F65" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="G65" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6701,10 +7004,10 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G66" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6724,10 +7027,10 @@
         <v>1274</v>
       </c>
       <c r="F67" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G67" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6747,10 +7050,10 @@
         <v>1274</v>
       </c>
       <c r="F68" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="G68" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6770,10 +7073,10 @@
         <v>1291</v>
       </c>
       <c r="F69" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
       <c r="G69" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6793,10 +7096,10 @@
         <v>1292</v>
       </c>
       <c r="F70" t="s">
-        <v>992</v>
+        <v>1392</v>
       </c>
       <c r="G70" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6816,10 +7119,10 @@
         <v>1293</v>
       </c>
       <c r="F71" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="G71" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6839,10 +7142,10 @@
         <v>1276</v>
       </c>
       <c r="F72" t="s">
-        <v>1352</v>
+        <v>1394</v>
       </c>
       <c r="G72" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6862,10 +7165,10 @@
         <v>1275</v>
       </c>
       <c r="F73" t="s">
-        <v>936</v>
+        <v>1395</v>
       </c>
       <c r="G73" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6885,10 +7188,10 @@
         <v>1294</v>
       </c>
       <c r="F74" t="s">
-        <v>936</v>
+        <v>1396</v>
       </c>
       <c r="G74" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6908,10 +7211,10 @@
         <v>1274</v>
       </c>
       <c r="F75" t="s">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="G75" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6931,10 +7234,10 @@
         <v>1282</v>
       </c>
       <c r="F76" t="s">
-        <v>1383</v>
+        <v>1351</v>
       </c>
       <c r="G76" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6957,7 +7260,7 @@
         <v>988</v>
       </c>
       <c r="G77" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6977,10 +7280,10 @@
         <v>1283</v>
       </c>
       <c r="F78" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="G78" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -7000,10 +7303,10 @@
         <v>1276</v>
       </c>
       <c r="F79" t="s">
-        <v>1385</v>
+        <v>999</v>
       </c>
       <c r="G79" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7023,10 +7326,10 @@
         <v>1287</v>
       </c>
       <c r="F80" t="s">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="G80" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -7046,10 +7349,10 @@
         <v>1276</v>
       </c>
       <c r="F81" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
       <c r="G81" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7069,10 +7372,10 @@
         <v>1275</v>
       </c>
       <c r="F82" t="s">
-        <v>1388</v>
+        <v>1401</v>
       </c>
       <c r="G82" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7092,10 +7395,10 @@
         <v>1276</v>
       </c>
       <c r="F83" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
       <c r="G83" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7115,10 +7418,10 @@
         <v>1295</v>
       </c>
       <c r="F84" t="s">
-        <v>1390</v>
+        <v>1403</v>
       </c>
       <c r="G84" t="s">
-        <v>1584</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -7141,7 +7444,7 @@
         <v>936</v>
       </c>
       <c r="G85" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7161,10 +7464,10 @@
         <v>1276</v>
       </c>
       <c r="F86" t="s">
-        <v>1391</v>
+        <v>1003</v>
       </c>
       <c r="G86" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7184,10 +7487,10 @@
         <v>1280</v>
       </c>
       <c r="F87" t="s">
-        <v>1352</v>
+        <v>1404</v>
       </c>
       <c r="G87" t="s">
-        <v>1586</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -7207,10 +7510,10 @@
         <v>1276</v>
       </c>
       <c r="F88" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
       <c r="G88" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7230,10 +7533,10 @@
         <v>1283</v>
       </c>
       <c r="F89" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="G89" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7253,10 +7556,10 @@
         <v>1282</v>
       </c>
       <c r="F90" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="G90" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7276,10 +7579,10 @@
         <v>1276</v>
       </c>
       <c r="F91" t="s">
-        <v>1356</v>
+        <v>1406</v>
       </c>
       <c r="G91" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -7299,10 +7602,10 @@
         <v>1296</v>
       </c>
       <c r="F92" t="s">
-        <v>971</v>
+        <v>1407</v>
       </c>
       <c r="G92" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7322,10 +7625,10 @@
         <v>1284</v>
       </c>
       <c r="F93" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="G93" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7345,10 +7648,10 @@
         <v>1297</v>
       </c>
       <c r="F94" t="s">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="G94" t="s">
-        <v>1587</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7368,10 +7671,10 @@
         <v>1275</v>
       </c>
       <c r="F95" t="s">
-        <v>1395</v>
+        <v>1410</v>
       </c>
       <c r="G95" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7391,10 +7694,10 @@
         <v>1287</v>
       </c>
       <c r="F96" t="s">
-        <v>1396</v>
+        <v>1411</v>
       </c>
       <c r="G96" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7414,10 +7717,10 @@
         <v>1298</v>
       </c>
       <c r="F97" t="s">
-        <v>1397</v>
+        <v>1412</v>
       </c>
       <c r="G97" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7437,10 +7740,10 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1398</v>
+        <v>1413</v>
       </c>
       <c r="G98" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7460,10 +7763,10 @@
         <v>1275</v>
       </c>
       <c r="F99" t="s">
-        <v>1399</v>
+        <v>1414</v>
       </c>
       <c r="G99" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7483,10 +7786,10 @@
         <v>1274</v>
       </c>
       <c r="F100" t="s">
-        <v>1341</v>
+        <v>1415</v>
       </c>
       <c r="G100" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7506,10 +7809,10 @@
         <v>1277</v>
       </c>
       <c r="F101" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G101" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7529,10 +7832,10 @@
         <v>1277</v>
       </c>
       <c r="F102" t="s">
-        <v>1400</v>
+        <v>1416</v>
       </c>
       <c r="G102" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7552,10 +7855,10 @@
         <v>1276</v>
       </c>
       <c r="F103" t="s">
-        <v>1401</v>
+        <v>1345</v>
       </c>
       <c r="G103" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7575,10 +7878,10 @@
         <v>1274</v>
       </c>
       <c r="F104" t="s">
-        <v>951</v>
+        <v>1417</v>
       </c>
       <c r="G104" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7598,10 +7901,10 @@
         <v>1283</v>
       </c>
       <c r="F105" t="s">
-        <v>1402</v>
+        <v>1418</v>
       </c>
       <c r="G105" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7621,10 +7924,10 @@
         <v>1283</v>
       </c>
       <c r="F106" t="s">
-        <v>971</v>
+        <v>1419</v>
       </c>
       <c r="G106" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7644,10 +7947,10 @@
         <v>1275</v>
       </c>
       <c r="F107" t="s">
-        <v>936</v>
+        <v>1420</v>
       </c>
       <c r="G107" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7670,7 +7973,7 @@
         <v>934</v>
       </c>
       <c r="G108" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7690,10 +7993,10 @@
         <v>1284</v>
       </c>
       <c r="F109" t="s">
-        <v>1374</v>
+        <v>1421</v>
       </c>
       <c r="G109" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7713,10 +8016,10 @@
         <v>1274</v>
       </c>
       <c r="F110" t="s">
-        <v>1403</v>
+        <v>1422</v>
       </c>
       <c r="G110" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7736,10 +8039,10 @@
         <v>1294</v>
       </c>
       <c r="F111" t="s">
-        <v>1404</v>
+        <v>1423</v>
       </c>
       <c r="G111" t="s">
-        <v>1588</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7759,10 +8062,10 @@
         <v>1296</v>
       </c>
       <c r="F112" t="s">
-        <v>1405</v>
+        <v>1424</v>
       </c>
       <c r="G112" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7782,10 +8085,10 @@
         <v>1274</v>
       </c>
       <c r="F113" t="s">
-        <v>1406</v>
+        <v>1382</v>
       </c>
       <c r="G113" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7805,10 +8108,10 @@
         <v>1276</v>
       </c>
       <c r="F114" t="s">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="G114" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -7828,10 +8131,10 @@
         <v>1275</v>
       </c>
       <c r="F115" t="s">
-        <v>1387</v>
+        <v>1425</v>
       </c>
       <c r="G115" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -7851,10 +8154,10 @@
         <v>1283</v>
       </c>
       <c r="F116" t="s">
-        <v>1068</v>
+        <v>1426</v>
       </c>
       <c r="G116" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -7877,7 +8180,7 @@
         <v>951</v>
       </c>
       <c r="G117" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -7897,10 +8200,10 @@
         <v>1294</v>
       </c>
       <c r="F118" t="s">
-        <v>1407</v>
+        <v>1427</v>
       </c>
       <c r="G118" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -7920,10 +8223,10 @@
         <v>1275</v>
       </c>
       <c r="F119" t="s">
-        <v>1408</v>
+        <v>1378</v>
       </c>
       <c r="G119" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -7943,10 +8246,10 @@
         <v>1276</v>
       </c>
       <c r="F120" t="s">
-        <v>1360</v>
+        <v>1428</v>
       </c>
       <c r="G120" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -7966,10 +8269,10 @@
         <v>1294</v>
       </c>
       <c r="F121" t="s">
-        <v>934</v>
+        <v>1429</v>
       </c>
       <c r="G121" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7989,10 +8292,10 @@
         <v>1276</v>
       </c>
       <c r="F122" t="s">
-        <v>1409</v>
+        <v>1430</v>
       </c>
       <c r="G122" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8012,10 +8315,10 @@
         <v>1276</v>
       </c>
       <c r="F123" t="s">
-        <v>971</v>
+        <v>1431</v>
       </c>
       <c r="G123" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8035,10 +8338,10 @@
         <v>1299</v>
       </c>
       <c r="F124" t="s">
-        <v>951</v>
+        <v>1432</v>
       </c>
       <c r="G124" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8058,10 +8361,10 @@
         <v>1274</v>
       </c>
       <c r="F125" t="s">
-        <v>934</v>
+        <v>1433</v>
       </c>
       <c r="G125" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8084,7 +8387,7 @@
         <v>936</v>
       </c>
       <c r="G126" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8104,10 +8407,10 @@
         <v>1276</v>
       </c>
       <c r="F127" t="s">
-        <v>1410</v>
+        <v>1434</v>
       </c>
       <c r="G127" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8127,10 +8430,10 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1346</v>
+        <v>1435</v>
       </c>
       <c r="G128" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8150,10 +8453,10 @@
         <v>1276</v>
       </c>
       <c r="F129" t="s">
-        <v>1411</v>
+        <v>1003</v>
       </c>
       <c r="G129" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8173,10 +8476,10 @@
         <v>1275</v>
       </c>
       <c r="F130" t="s">
-        <v>1412</v>
+        <v>1436</v>
       </c>
       <c r="G130" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8196,10 +8499,10 @@
         <v>1274</v>
       </c>
       <c r="F131" t="s">
-        <v>1413</v>
+        <v>1437</v>
       </c>
       <c r="G131" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8219,10 +8522,10 @@
         <v>1275</v>
       </c>
       <c r="F132" t="s">
-        <v>1394</v>
+        <v>1438</v>
       </c>
       <c r="G132" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8242,10 +8545,10 @@
         <v>1275</v>
       </c>
       <c r="F133" t="s">
-        <v>1414</v>
+        <v>1439</v>
       </c>
       <c r="G133" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8265,10 +8568,10 @@
         <v>1296</v>
       </c>
       <c r="F134" t="s">
-        <v>971</v>
+        <v>1440</v>
       </c>
       <c r="G134" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8288,10 +8591,10 @@
         <v>1274</v>
       </c>
       <c r="F135" t="s">
-        <v>1413</v>
+        <v>1437</v>
       </c>
       <c r="G135" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8311,10 +8614,10 @@
         <v>1274</v>
       </c>
       <c r="F136" t="s">
-        <v>1415</v>
+        <v>1441</v>
       </c>
       <c r="G136" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8334,10 +8637,10 @@
         <v>1275</v>
       </c>
       <c r="F137" t="s">
-        <v>1394</v>
+        <v>1442</v>
       </c>
       <c r="G137" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8357,10 +8660,10 @@
         <v>1296</v>
       </c>
       <c r="F138" t="s">
-        <v>1356</v>
+        <v>1443</v>
       </c>
       <c r="G138" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8380,10 +8683,10 @@
         <v>1296</v>
       </c>
       <c r="F139" t="s">
-        <v>1416</v>
+        <v>1444</v>
       </c>
       <c r="G139" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8403,10 +8706,10 @@
         <v>1276</v>
       </c>
       <c r="F140" t="s">
-        <v>1417</v>
+        <v>1445</v>
       </c>
       <c r="G140" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8426,10 +8729,10 @@
         <v>1283</v>
       </c>
       <c r="F141" t="s">
-        <v>971</v>
+        <v>1446</v>
       </c>
       <c r="G141" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8449,10 +8752,10 @@
         <v>1275</v>
       </c>
       <c r="F142" t="s">
-        <v>1418</v>
+        <v>1447</v>
       </c>
       <c r="G142" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8472,10 +8775,10 @@
         <v>1274</v>
       </c>
       <c r="F143" t="s">
-        <v>936</v>
+        <v>1448</v>
       </c>
       <c r="G143" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8495,10 +8798,10 @@
         <v>1296</v>
       </c>
       <c r="F144" t="s">
-        <v>1419</v>
+        <v>1449</v>
       </c>
       <c r="G144" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8518,10 +8821,10 @@
         <v>1280</v>
       </c>
       <c r="F145" t="s">
-        <v>936</v>
+        <v>1450</v>
       </c>
       <c r="G145" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8544,7 +8847,7 @@
         <v>1053</v>
       </c>
       <c r="G146" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8564,10 +8867,10 @@
         <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1420</v>
+        <v>1451</v>
       </c>
       <c r="G147" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8587,10 +8890,10 @@
         <v>1282</v>
       </c>
       <c r="F148" t="s">
-        <v>1421</v>
+        <v>1360</v>
       </c>
       <c r="G148" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8610,10 +8913,10 @@
         <v>1275</v>
       </c>
       <c r="F149" t="s">
-        <v>1422</v>
+        <v>1452</v>
       </c>
       <c r="G149" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8633,10 +8936,10 @@
         <v>1280</v>
       </c>
       <c r="F150" t="s">
-        <v>992</v>
+        <v>1453</v>
       </c>
       <c r="G150" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8656,10 +8959,10 @@
         <v>1300</v>
       </c>
       <c r="F151" t="s">
-        <v>1354</v>
+        <v>1454</v>
       </c>
       <c r="G151" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8682,7 +8985,7 @@
         <v>934</v>
       </c>
       <c r="G152" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -8702,10 +9005,10 @@
         <v>1276</v>
       </c>
       <c r="F153" t="s">
-        <v>1423</v>
+        <v>1455</v>
       </c>
       <c r="G153" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8725,10 +9028,10 @@
         <v>1275</v>
       </c>
       <c r="F154" t="s">
-        <v>1424</v>
+        <v>1456</v>
       </c>
       <c r="G154" t="s">
-        <v>1589</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8748,10 +9051,10 @@
         <v>1274</v>
       </c>
       <c r="F155" t="s">
-        <v>1425</v>
+        <v>1457</v>
       </c>
       <c r="G155" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8771,10 +9074,10 @@
         <v>1301</v>
       </c>
       <c r="F156" t="s">
-        <v>1387</v>
+        <v>1458</v>
       </c>
       <c r="G156" t="s">
-        <v>1590</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8794,10 +9097,10 @@
         <v>1275</v>
       </c>
       <c r="F157" t="s">
-        <v>1426</v>
+        <v>1459</v>
       </c>
       <c r="G157" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8817,10 +9120,10 @@
         <v>1302</v>
       </c>
       <c r="F158" t="s">
-        <v>1342</v>
+        <v>1460</v>
       </c>
       <c r="G158" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -8840,10 +9143,10 @@
         <v>1276</v>
       </c>
       <c r="F159" t="s">
-        <v>1409</v>
+        <v>1461</v>
       </c>
       <c r="G159" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -8863,10 +9166,10 @@
         <v>1276</v>
       </c>
       <c r="F160" t="s">
-        <v>1427</v>
+        <v>1462</v>
       </c>
       <c r="G160" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -8886,10 +9189,10 @@
         <v>1276</v>
       </c>
       <c r="F161" t="s">
-        <v>1065</v>
+        <v>1463</v>
       </c>
       <c r="G161" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -8909,10 +9212,10 @@
         <v>1276</v>
       </c>
       <c r="F162" t="s">
-        <v>1428</v>
+        <v>1345</v>
       </c>
       <c r="G162" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -8932,10 +9235,10 @@
         <v>1283</v>
       </c>
       <c r="F163" t="s">
-        <v>1356</v>
+        <v>1464</v>
       </c>
       <c r="G163" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -8955,10 +9258,10 @@
         <v>1283</v>
       </c>
       <c r="F164" t="s">
-        <v>1429</v>
+        <v>1465</v>
       </c>
       <c r="G164" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -8978,10 +9281,10 @@
         <v>1283</v>
       </c>
       <c r="F165" t="s">
-        <v>1352</v>
+        <v>1466</v>
       </c>
       <c r="G165" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9004,7 +9307,7 @@
         <v>1065</v>
       </c>
       <c r="G166" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9024,10 +9327,10 @@
         <v>1276</v>
       </c>
       <c r="F167" t="s">
-        <v>1356</v>
+        <v>1467</v>
       </c>
       <c r="G167" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9050,7 +9353,7 @@
         <v>979</v>
       </c>
       <c r="G168" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9070,10 +9373,10 @@
         <v>1277</v>
       </c>
       <c r="F169" t="s">
-        <v>1352</v>
+        <v>1468</v>
       </c>
       <c r="G169" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9093,10 +9396,10 @@
         <v>1284</v>
       </c>
       <c r="F170" t="s">
-        <v>1430</v>
+        <v>1469</v>
       </c>
       <c r="G170" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9116,10 +9419,10 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1352</v>
+        <v>1418</v>
       </c>
       <c r="G171" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9139,10 +9442,10 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>936</v>
+        <v>1470</v>
       </c>
       <c r="G172" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9162,10 +9465,10 @@
         <v>1303</v>
       </c>
       <c r="F173" t="s">
-        <v>1431</v>
+        <v>1471</v>
       </c>
       <c r="G173" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9185,10 +9488,10 @@
         <v>1298</v>
       </c>
       <c r="F174" t="s">
-        <v>1068</v>
+        <v>1472</v>
       </c>
       <c r="G174" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9208,10 +9511,10 @@
         <v>1304</v>
       </c>
       <c r="F175" t="s">
-        <v>1353</v>
+        <v>1473</v>
       </c>
       <c r="G175" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9231,10 +9534,10 @@
         <v>1274</v>
       </c>
       <c r="F176" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G176" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -9254,10 +9557,10 @@
         <v>1275</v>
       </c>
       <c r="F177" t="s">
-        <v>1432</v>
+        <v>1474</v>
       </c>
       <c r="G177" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -9277,10 +9580,10 @@
         <v>1294</v>
       </c>
       <c r="F178" t="s">
-        <v>1433</v>
+        <v>1475</v>
       </c>
       <c r="G178" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -9300,10 +9603,10 @@
         <v>1275</v>
       </c>
       <c r="F179" t="s">
-        <v>1434</v>
+        <v>1476</v>
       </c>
       <c r="G179" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9323,10 +9626,10 @@
         <v>1305</v>
       </c>
       <c r="F180" t="s">
-        <v>1435</v>
+        <v>1477</v>
       </c>
       <c r="G180" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -9346,10 +9649,10 @@
         <v>1274</v>
       </c>
       <c r="F181" t="s">
-        <v>1436</v>
+        <v>1478</v>
       </c>
       <c r="G181" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9369,10 +9672,10 @@
         <v>1282</v>
       </c>
       <c r="F182" t="s">
-        <v>1437</v>
+        <v>1479</v>
       </c>
       <c r="G182" t="s">
-        <v>1580</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9392,10 +9695,10 @@
         <v>1306</v>
       </c>
       <c r="F183" t="s">
-        <v>1438</v>
+        <v>1480</v>
       </c>
       <c r="G183" t="s">
-        <v>1591</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9415,10 +9718,10 @@
         <v>1307</v>
       </c>
       <c r="F184" t="s">
-        <v>1439</v>
+        <v>1481</v>
       </c>
       <c r="G184" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9438,10 +9741,10 @@
         <v>1291</v>
       </c>
       <c r="F185" t="s">
-        <v>1440</v>
+        <v>1482</v>
       </c>
       <c r="G185" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9461,10 +9764,10 @@
         <v>1275</v>
       </c>
       <c r="F186" t="s">
-        <v>1441</v>
+        <v>1476</v>
       </c>
       <c r="G186" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9484,10 +9787,10 @@
         <v>1276</v>
       </c>
       <c r="F187" t="s">
-        <v>992</v>
+        <v>1483</v>
       </c>
       <c r="G187" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9507,10 +9810,10 @@
         <v>1276</v>
       </c>
       <c r="F188" t="s">
-        <v>1352</v>
+        <v>1418</v>
       </c>
       <c r="G188" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9530,10 +9833,10 @@
         <v>1276</v>
       </c>
       <c r="F189" t="s">
-        <v>1442</v>
+        <v>1484</v>
       </c>
       <c r="G189" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9553,10 +9856,10 @@
         <v>1308</v>
       </c>
       <c r="F190" t="s">
-        <v>1350</v>
+        <v>1485</v>
       </c>
       <c r="G190" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9576,10 +9879,10 @@
         <v>1283</v>
       </c>
       <c r="F191" t="s">
-        <v>1443</v>
+        <v>1092</v>
       </c>
       <c r="G191" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9599,10 +9902,10 @@
         <v>1276</v>
       </c>
       <c r="F192" t="s">
-        <v>936</v>
+        <v>1486</v>
       </c>
       <c r="G192" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9622,10 +9925,10 @@
         <v>1275</v>
       </c>
       <c r="F193" t="s">
-        <v>992</v>
+        <v>1487</v>
       </c>
       <c r="G193" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9648,7 +9951,7 @@
         <v>951</v>
       </c>
       <c r="G194" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9671,7 +9974,7 @@
         <v>936</v>
       </c>
       <c r="G195" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -9691,10 +9994,10 @@
         <v>1275</v>
       </c>
       <c r="F196" t="s">
-        <v>1444</v>
+        <v>1488</v>
       </c>
       <c r="G196" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -9714,10 +10017,10 @@
         <v>1309</v>
       </c>
       <c r="F197" t="s">
-        <v>1349</v>
+        <v>1489</v>
       </c>
       <c r="G197" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9737,10 +10040,10 @@
         <v>1282</v>
       </c>
       <c r="F198" t="s">
-        <v>1445</v>
+        <v>1490</v>
       </c>
       <c r="G198" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9760,10 +10063,10 @@
         <v>1276</v>
       </c>
       <c r="F199" t="s">
-        <v>1446</v>
+        <v>1491</v>
       </c>
       <c r="G199" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -9786,7 +10089,7 @@
         <v>971</v>
       </c>
       <c r="G200" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -9806,10 +10109,10 @@
         <v>1283</v>
       </c>
       <c r="F201" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G201" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -9832,7 +10135,7 @@
         <v>999</v>
       </c>
       <c r="G202" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -9851,8 +10154,11 @@
       <c r="E203" t="s">
         <v>1295</v>
       </c>
+      <c r="F203" t="s">
+        <v>1492</v>
+      </c>
       <c r="G203" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -9872,10 +10178,10 @@
         <v>1276</v>
       </c>
       <c r="F204" t="s">
-        <v>1447</v>
+        <v>1493</v>
       </c>
       <c r="G204" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -9895,10 +10201,10 @@
         <v>1276</v>
       </c>
       <c r="F205" t="s">
-        <v>1419</v>
+        <v>1482</v>
       </c>
       <c r="G205" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -9918,10 +10224,10 @@
         <v>1283</v>
       </c>
       <c r="F206" t="s">
-        <v>1419</v>
+        <v>1482</v>
       </c>
       <c r="G206" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -9941,10 +10247,10 @@
         <v>1307</v>
       </c>
       <c r="F207" t="s">
-        <v>1448</v>
+        <v>1494</v>
       </c>
       <c r="G207" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -9964,10 +10270,10 @@
         <v>1283</v>
       </c>
       <c r="F208" t="s">
-        <v>1092</v>
+        <v>1495</v>
       </c>
       <c r="G208" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -9987,10 +10293,10 @@
         <v>1310</v>
       </c>
       <c r="F209" t="s">
-        <v>1449</v>
+        <v>1496</v>
       </c>
       <c r="G209" t="s">
-        <v>1588</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -10010,10 +10316,10 @@
         <v>1277</v>
       </c>
       <c r="F210" t="s">
-        <v>1450</v>
+        <v>1497</v>
       </c>
       <c r="G210" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -10033,10 +10339,10 @@
         <v>1274</v>
       </c>
       <c r="F211" t="s">
-        <v>1451</v>
+        <v>1498</v>
       </c>
       <c r="G211" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -10056,10 +10362,10 @@
         <v>1274</v>
       </c>
       <c r="F212" t="s">
-        <v>951</v>
+        <v>1499</v>
       </c>
       <c r="G212" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -10079,10 +10385,10 @@
         <v>1276</v>
       </c>
       <c r="F213" t="s">
-        <v>936</v>
+        <v>1500</v>
       </c>
       <c r="G213" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -10102,10 +10408,10 @@
         <v>1275</v>
       </c>
       <c r="F214" t="s">
-        <v>1452</v>
+        <v>1501</v>
       </c>
       <c r="G214" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -10125,10 +10431,10 @@
         <v>1276</v>
       </c>
       <c r="F215" t="s">
-        <v>1453</v>
+        <v>1502</v>
       </c>
       <c r="G215" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10148,10 +10454,10 @@
         <v>1309</v>
       </c>
       <c r="F216" t="s">
-        <v>1454</v>
+        <v>1503</v>
       </c>
       <c r="G216" t="s">
-        <v>1592</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -10171,10 +10477,10 @@
         <v>1276</v>
       </c>
       <c r="F217" t="s">
-        <v>1455</v>
+        <v>1504</v>
       </c>
       <c r="G217" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -10194,10 +10500,10 @@
         <v>1276</v>
       </c>
       <c r="F218" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G218" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -10217,10 +10523,10 @@
         <v>1294</v>
       </c>
       <c r="F219" t="s">
-        <v>1456</v>
+        <v>1505</v>
       </c>
       <c r="G219" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -10240,10 +10546,10 @@
         <v>1276</v>
       </c>
       <c r="F220" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
       <c r="G220" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -10263,10 +10569,10 @@
         <v>1309</v>
       </c>
       <c r="F221" t="s">
-        <v>1457</v>
+        <v>1506</v>
       </c>
       <c r="G221" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -10286,10 +10592,10 @@
         <v>1283</v>
       </c>
       <c r="F222" t="s">
-        <v>1458</v>
+        <v>1507</v>
       </c>
       <c r="G222" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10309,10 +10615,10 @@
         <v>1308</v>
       </c>
       <c r="F223" t="s">
-        <v>1459</v>
+        <v>1508</v>
       </c>
       <c r="G223" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -10332,10 +10638,10 @@
         <v>1311</v>
       </c>
       <c r="F224" t="s">
-        <v>951</v>
+        <v>1509</v>
       </c>
       <c r="G224" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -10355,10 +10661,10 @@
         <v>1274</v>
       </c>
       <c r="F225" t="s">
-        <v>1459</v>
+        <v>951</v>
       </c>
       <c r="G225" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -10378,10 +10684,10 @@
         <v>1309</v>
       </c>
       <c r="F226" t="s">
-        <v>1460</v>
+        <v>1510</v>
       </c>
       <c r="G226" t="s">
-        <v>1593</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10401,10 +10707,10 @@
         <v>1312</v>
       </c>
       <c r="F227" t="s">
-        <v>1461</v>
+        <v>1511</v>
       </c>
       <c r="G227" t="s">
-        <v>1594</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -10424,10 +10730,10 @@
         <v>1283</v>
       </c>
       <c r="F228" t="s">
-        <v>1462</v>
+        <v>1512</v>
       </c>
       <c r="G228" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -10450,7 +10756,7 @@
         <v>1092</v>
       </c>
       <c r="G229" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10470,10 +10776,10 @@
         <v>1274</v>
       </c>
       <c r="F230" t="s">
-        <v>934</v>
+        <v>1513</v>
       </c>
       <c r="G230" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10496,7 +10802,7 @@
         <v>1092</v>
       </c>
       <c r="G231" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10516,10 +10822,10 @@
         <v>1283</v>
       </c>
       <c r="F232" t="s">
-        <v>1463</v>
+        <v>1514</v>
       </c>
       <c r="G232" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -10539,10 +10845,10 @@
         <v>1274</v>
       </c>
       <c r="F233" t="s">
-        <v>1354</v>
+        <v>1515</v>
       </c>
       <c r="G233" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10562,10 +10868,10 @@
         <v>1292</v>
       </c>
       <c r="F234" t="s">
-        <v>1353</v>
+        <v>1516</v>
       </c>
       <c r="G234" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10588,7 +10894,7 @@
         <v>951</v>
       </c>
       <c r="G235" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10608,10 +10914,10 @@
         <v>1274</v>
       </c>
       <c r="F236" t="s">
-        <v>1464</v>
+        <v>1517</v>
       </c>
       <c r="G236" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10631,10 +10937,10 @@
         <v>1313</v>
       </c>
       <c r="F237" t="s">
-        <v>1353</v>
+        <v>1518</v>
       </c>
       <c r="G237" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10654,10 +10960,10 @@
         <v>1283</v>
       </c>
       <c r="F238" t="s">
-        <v>1465</v>
+        <v>1519</v>
       </c>
       <c r="G238" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10677,10 +10983,10 @@
         <v>1298</v>
       </c>
       <c r="F239" t="s">
-        <v>1466</v>
+        <v>1351</v>
       </c>
       <c r="G239" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10700,10 +11006,10 @@
         <v>1283</v>
       </c>
       <c r="F240" t="s">
-        <v>1429</v>
+        <v>1520</v>
       </c>
       <c r="G240" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10723,10 +11029,10 @@
         <v>1283</v>
       </c>
       <c r="F241" t="s">
-        <v>934</v>
+        <v>1521</v>
       </c>
       <c r="G241" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10746,10 +11052,10 @@
         <v>1314</v>
       </c>
       <c r="F242" t="s">
-        <v>1467</v>
+        <v>1522</v>
       </c>
       <c r="G242" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10769,10 +11075,10 @@
         <v>1274</v>
       </c>
       <c r="F243" t="s">
-        <v>951</v>
+        <v>1523</v>
       </c>
       <c r="G243" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -10792,10 +11098,10 @@
         <v>1283</v>
       </c>
       <c r="F244" t="s">
-        <v>971</v>
+        <v>1524</v>
       </c>
       <c r="G244" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -10815,10 +11121,10 @@
         <v>1315</v>
       </c>
       <c r="F245" t="s">
-        <v>1468</v>
+        <v>1525</v>
       </c>
       <c r="G245" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -10838,10 +11144,10 @@
         <v>1283</v>
       </c>
       <c r="F246" t="s">
-        <v>1469</v>
+        <v>1526</v>
       </c>
       <c r="G246" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -10861,10 +11167,10 @@
         <v>1316</v>
       </c>
       <c r="F247" t="s">
-        <v>1421</v>
+        <v>1527</v>
       </c>
       <c r="G247" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -10884,10 +11190,10 @@
         <v>1274</v>
       </c>
       <c r="F248" t="s">
-        <v>1350</v>
+        <v>1528</v>
       </c>
       <c r="G248" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -10907,10 +11213,10 @@
         <v>1274</v>
       </c>
       <c r="F249" t="s">
-        <v>1470</v>
+        <v>1363</v>
       </c>
       <c r="G249" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -10930,10 +11236,10 @@
         <v>1274</v>
       </c>
       <c r="F250" t="s">
-        <v>1471</v>
+        <v>1351</v>
       </c>
       <c r="G250" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -10956,7 +11262,7 @@
         <v>934</v>
       </c>
       <c r="G251" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -10976,10 +11282,10 @@
         <v>1308</v>
       </c>
       <c r="F252" t="s">
-        <v>1341</v>
+        <v>1529</v>
       </c>
       <c r="G252" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -10999,10 +11305,10 @@
         <v>1274</v>
       </c>
       <c r="F253" t="s">
-        <v>1472</v>
+        <v>1530</v>
       </c>
       <c r="G253" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11022,10 +11328,10 @@
         <v>1303</v>
       </c>
       <c r="F254" t="s">
-        <v>1473</v>
+        <v>1531</v>
       </c>
       <c r="G254" t="s">
-        <v>1576</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11045,10 +11351,10 @@
         <v>1277</v>
       </c>
       <c r="F255" t="s">
-        <v>1474</v>
+        <v>1532</v>
       </c>
       <c r="G255" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11068,10 +11374,10 @@
         <v>1298</v>
       </c>
       <c r="F256" t="s">
-        <v>1397</v>
+        <v>951</v>
       </c>
       <c r="G256" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -11091,10 +11397,10 @@
         <v>1274</v>
       </c>
       <c r="F257" t="s">
-        <v>1475</v>
+        <v>1163</v>
       </c>
       <c r="G257" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -11114,10 +11420,10 @@
         <v>1274</v>
       </c>
       <c r="F258" t="s">
-        <v>1476</v>
+        <v>951</v>
       </c>
       <c r="G258" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -11140,7 +11446,7 @@
         <v>951</v>
       </c>
       <c r="G259" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -11160,10 +11466,10 @@
         <v>1274</v>
       </c>
       <c r="F260" t="s">
-        <v>1477</v>
+        <v>971</v>
       </c>
       <c r="G260" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -11183,10 +11489,10 @@
         <v>1277</v>
       </c>
       <c r="F261" t="s">
-        <v>1478</v>
+        <v>1518</v>
       </c>
       <c r="G261" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -11206,10 +11512,10 @@
         <v>1284</v>
       </c>
       <c r="F262" t="s">
-        <v>1479</v>
+        <v>1355</v>
       </c>
       <c r="G262" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11229,10 +11535,10 @@
         <v>1277</v>
       </c>
       <c r="F263" t="s">
-        <v>1351</v>
+        <v>1533</v>
       </c>
       <c r="G263" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -11255,7 +11561,7 @@
         <v>1068</v>
       </c>
       <c r="G264" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -11275,10 +11581,10 @@
         <v>1277</v>
       </c>
       <c r="F265" t="s">
-        <v>1353</v>
+        <v>1518</v>
       </c>
       <c r="G265" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -11298,10 +11604,10 @@
         <v>1283</v>
       </c>
       <c r="F266" t="s">
-        <v>1480</v>
+        <v>1534</v>
       </c>
       <c r="G266" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11321,10 +11627,10 @@
         <v>1283</v>
       </c>
       <c r="F267" t="s">
-        <v>971</v>
+        <v>1535</v>
       </c>
       <c r="G267" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -11344,10 +11650,10 @@
         <v>1298</v>
       </c>
       <c r="F268" t="s">
-        <v>1481</v>
+        <v>1536</v>
       </c>
       <c r="G268" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11367,10 +11673,10 @@
         <v>1274</v>
       </c>
       <c r="F269" t="s">
-        <v>1482</v>
+        <v>1537</v>
       </c>
       <c r="G269" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -11390,10 +11696,10 @@
         <v>1309</v>
       </c>
       <c r="F270" t="s">
-        <v>1483</v>
+        <v>1538</v>
       </c>
       <c r="G270" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -11413,10 +11719,10 @@
         <v>1292</v>
       </c>
       <c r="F271" t="s">
-        <v>1484</v>
+        <v>1539</v>
       </c>
       <c r="G271" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11436,10 +11742,10 @@
         <v>1277</v>
       </c>
       <c r="F272" t="s">
-        <v>1485</v>
+        <v>1540</v>
       </c>
       <c r="G272" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11459,10 +11765,10 @@
         <v>1284</v>
       </c>
       <c r="F273" t="s">
-        <v>1486</v>
+        <v>1541</v>
       </c>
       <c r="G273" t="s">
-        <v>1581</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11482,10 +11788,10 @@
         <v>1274</v>
       </c>
       <c r="F274" t="s">
-        <v>1487</v>
+        <v>1542</v>
       </c>
       <c r="G274" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11505,10 +11811,10 @@
         <v>1274</v>
       </c>
       <c r="F275" t="s">
-        <v>1488</v>
+        <v>1543</v>
       </c>
       <c r="G275" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11528,10 +11834,10 @@
         <v>1302</v>
       </c>
       <c r="F276" t="s">
-        <v>1489</v>
+        <v>936</v>
       </c>
       <c r="G276" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11551,10 +11857,10 @@
         <v>1284</v>
       </c>
       <c r="F277" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G277" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11574,10 +11880,10 @@
         <v>1277</v>
       </c>
       <c r="F278" t="s">
-        <v>1374</v>
+        <v>1544</v>
       </c>
       <c r="G278" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11597,10 +11903,10 @@
         <v>1283</v>
       </c>
       <c r="F279" t="s">
-        <v>1490</v>
+        <v>1545</v>
       </c>
       <c r="G279" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11620,10 +11926,10 @@
         <v>1317</v>
       </c>
       <c r="F280" t="s">
-        <v>1491</v>
+        <v>1546</v>
       </c>
       <c r="G280" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11643,10 +11949,10 @@
         <v>1274</v>
       </c>
       <c r="F281" t="s">
-        <v>1492</v>
+        <v>1391</v>
       </c>
       <c r="G281" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11666,10 +11972,10 @@
         <v>1274</v>
       </c>
       <c r="F282" t="s">
-        <v>1351</v>
+        <v>1547</v>
       </c>
       <c r="G282" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11689,10 +11995,10 @@
         <v>1274</v>
       </c>
       <c r="F283" t="s">
-        <v>951</v>
+        <v>1548</v>
       </c>
       <c r="G283" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11712,10 +12018,10 @@
         <v>1274</v>
       </c>
       <c r="F284" t="s">
-        <v>1352</v>
+        <v>1549</v>
       </c>
       <c r="G284" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11735,10 +12041,10 @@
         <v>1274</v>
       </c>
       <c r="F285" t="s">
-        <v>1493</v>
+        <v>1550</v>
       </c>
       <c r="G285" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11758,10 +12064,10 @@
         <v>1274</v>
       </c>
       <c r="F286" t="s">
-        <v>1494</v>
+        <v>1551</v>
       </c>
       <c r="G286" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -11781,10 +12087,10 @@
         <v>1274</v>
       </c>
       <c r="F287" t="s">
-        <v>1495</v>
+        <v>1552</v>
       </c>
       <c r="G287" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -11804,10 +12110,10 @@
         <v>1283</v>
       </c>
       <c r="F288" t="s">
-        <v>1118</v>
+        <v>1553</v>
       </c>
       <c r="G288" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -11830,7 +12136,7 @@
         <v>951</v>
       </c>
       <c r="G289" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -11850,10 +12156,10 @@
         <v>1318</v>
       </c>
       <c r="F290" t="s">
-        <v>1496</v>
+        <v>1554</v>
       </c>
       <c r="G290" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -11873,10 +12179,10 @@
         <v>1274</v>
       </c>
       <c r="F291" t="s">
-        <v>1497</v>
+        <v>1555</v>
       </c>
       <c r="G291" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -11896,10 +12202,10 @@
         <v>1274</v>
       </c>
       <c r="F292" t="s">
-        <v>1498</v>
+        <v>1556</v>
       </c>
       <c r="G292" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -11919,10 +12225,10 @@
         <v>1277</v>
       </c>
       <c r="F293" t="s">
-        <v>1496</v>
+        <v>1554</v>
       </c>
       <c r="G293" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -11942,10 +12248,10 @@
         <v>1274</v>
       </c>
       <c r="F294" t="s">
-        <v>1433</v>
+        <v>1557</v>
       </c>
       <c r="G294" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -11965,10 +12271,10 @@
         <v>1283</v>
       </c>
       <c r="F295" t="s">
-        <v>1432</v>
+        <v>1558</v>
       </c>
       <c r="G295" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -11988,10 +12294,10 @@
         <v>1319</v>
       </c>
       <c r="F296" t="s">
-        <v>1475</v>
+        <v>1559</v>
       </c>
       <c r="G296" t="s">
-        <v>1581</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -12011,10 +12317,10 @@
         <v>1274</v>
       </c>
       <c r="F297" t="s">
-        <v>1499</v>
+        <v>1560</v>
       </c>
       <c r="G297" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -12034,10 +12340,10 @@
         <v>1274</v>
       </c>
       <c r="F298" t="s">
-        <v>1482</v>
+        <v>1382</v>
       </c>
       <c r="G298" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -12057,10 +12363,10 @@
         <v>1296</v>
       </c>
       <c r="F299" t="s">
-        <v>1500</v>
+        <v>1561</v>
       </c>
       <c r="G299" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -12080,10 +12386,10 @@
         <v>1283</v>
       </c>
       <c r="F300" t="s">
-        <v>1443</v>
+        <v>1092</v>
       </c>
       <c r="G300" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -12106,7 +12412,7 @@
         <v>951</v>
       </c>
       <c r="G301" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -12126,10 +12432,10 @@
         <v>1274</v>
       </c>
       <c r="F302" t="s">
-        <v>1413</v>
+        <v>1562</v>
       </c>
       <c r="G302" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -12149,10 +12455,10 @@
         <v>1283</v>
       </c>
       <c r="F303" t="s">
-        <v>1501</v>
+        <v>1563</v>
       </c>
       <c r="G303" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -12172,10 +12478,10 @@
         <v>1292</v>
       </c>
       <c r="F304" t="s">
-        <v>1092</v>
+        <v>1564</v>
       </c>
       <c r="G304" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -12195,10 +12501,10 @@
         <v>1274</v>
       </c>
       <c r="F305" t="s">
-        <v>951</v>
+        <v>1565</v>
       </c>
       <c r="G305" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -12218,10 +12524,10 @@
         <v>1274</v>
       </c>
       <c r="F306" t="s">
-        <v>1432</v>
+        <v>954</v>
       </c>
       <c r="G306" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -12241,10 +12547,10 @@
         <v>1283</v>
       </c>
       <c r="F307" t="s">
-        <v>1502</v>
+        <v>1566</v>
       </c>
       <c r="G307" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -12264,10 +12570,10 @@
         <v>1277</v>
       </c>
       <c r="F308" t="s">
-        <v>1365</v>
+        <v>1567</v>
       </c>
       <c r="G308" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12287,10 +12593,10 @@
         <v>1274</v>
       </c>
       <c r="F309" t="s">
-        <v>1503</v>
+        <v>1568</v>
       </c>
       <c r="G309" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12310,10 +12616,10 @@
         <v>1320</v>
       </c>
       <c r="F310" t="s">
-        <v>1504</v>
+        <v>1003</v>
       </c>
       <c r="G310" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12333,10 +12639,10 @@
         <v>1277</v>
       </c>
       <c r="F311" t="s">
-        <v>1505</v>
+        <v>936</v>
       </c>
       <c r="G311" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -12356,10 +12662,10 @@
         <v>1274</v>
       </c>
       <c r="F312" t="s">
-        <v>934</v>
+        <v>1569</v>
       </c>
       <c r="G312" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12382,7 +12688,7 @@
         <v>951</v>
       </c>
       <c r="G313" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -12402,10 +12708,10 @@
         <v>1277</v>
       </c>
       <c r="F314" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G314" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12428,7 +12734,7 @@
         <v>1092</v>
       </c>
       <c r="G315" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12448,10 +12754,10 @@
         <v>1283</v>
       </c>
       <c r="F316" t="s">
-        <v>1092</v>
+        <v>1570</v>
       </c>
       <c r="G316" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12471,10 +12777,10 @@
         <v>1283</v>
       </c>
       <c r="F317" t="s">
-        <v>971</v>
+        <v>1571</v>
       </c>
       <c r="G317" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12494,10 +12800,10 @@
         <v>1283</v>
       </c>
       <c r="F318" t="s">
-        <v>1506</v>
+        <v>1572</v>
       </c>
       <c r="G318" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12517,10 +12823,10 @@
         <v>1274</v>
       </c>
       <c r="F319" t="s">
-        <v>951</v>
+        <v>1573</v>
       </c>
       <c r="G319" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12543,7 +12849,7 @@
         <v>951</v>
       </c>
       <c r="G320" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12563,10 +12869,10 @@
         <v>1292</v>
       </c>
       <c r="F321" t="s">
-        <v>1507</v>
+        <v>1574</v>
       </c>
       <c r="G321" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12586,10 +12892,10 @@
         <v>1274</v>
       </c>
       <c r="F322" t="s">
-        <v>1508</v>
+        <v>1575</v>
       </c>
       <c r="G322" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12609,10 +12915,10 @@
         <v>1274</v>
       </c>
       <c r="F323" t="s">
-        <v>1413</v>
+        <v>1437</v>
       </c>
       <c r="G323" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12632,10 +12938,10 @@
         <v>1277</v>
       </c>
       <c r="F324" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
       <c r="G324" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12658,7 +12964,7 @@
         <v>1174</v>
       </c>
       <c r="G325" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12678,10 +12984,10 @@
         <v>1283</v>
       </c>
       <c r="F326" t="s">
-        <v>1092</v>
+        <v>1576</v>
       </c>
       <c r="G326" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12701,10 +13007,10 @@
         <v>1313</v>
       </c>
       <c r="F327" t="s">
-        <v>1509</v>
+        <v>1577</v>
       </c>
       <c r="G327" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12724,10 +13030,10 @@
         <v>1283</v>
       </c>
       <c r="F328" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="G328" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12747,10 +13053,10 @@
         <v>1308</v>
       </c>
       <c r="F329" t="s">
-        <v>934</v>
+        <v>1578</v>
       </c>
       <c r="G329" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12770,10 +13076,10 @@
         <v>1277</v>
       </c>
       <c r="F330" t="s">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="G330" t="s">
-        <v>1580</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -12796,7 +13102,7 @@
         <v>951</v>
       </c>
       <c r="G331" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -12819,7 +13125,7 @@
         <v>1092</v>
       </c>
       <c r="G332" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -12839,10 +13145,10 @@
         <v>1274</v>
       </c>
       <c r="F333" t="s">
-        <v>934</v>
+        <v>1580</v>
       </c>
       <c r="G333" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -12862,10 +13168,10 @@
         <v>1283</v>
       </c>
       <c r="F334" t="s">
-        <v>1068</v>
+        <v>1581</v>
       </c>
       <c r="G334" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -12885,10 +13191,10 @@
         <v>1321</v>
       </c>
       <c r="F335" t="s">
-        <v>1511</v>
+        <v>1582</v>
       </c>
       <c r="G335" t="s">
-        <v>1595</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -12908,10 +13214,10 @@
         <v>1283</v>
       </c>
       <c r="F336" t="s">
-        <v>1352</v>
+        <v>1583</v>
       </c>
       <c r="G336" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -12931,10 +13237,10 @@
         <v>1295</v>
       </c>
       <c r="F337" t="s">
-        <v>1486</v>
+        <v>1584</v>
       </c>
       <c r="G337" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -12954,10 +13260,10 @@
         <v>1283</v>
       </c>
       <c r="F338" t="s">
-        <v>1356</v>
+        <v>1585</v>
       </c>
       <c r="G338" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -12977,10 +13283,10 @@
         <v>1274</v>
       </c>
       <c r="F339" t="s">
-        <v>1512</v>
+        <v>971</v>
       </c>
       <c r="G339" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -13000,10 +13306,10 @@
         <v>1283</v>
       </c>
       <c r="F340" t="s">
-        <v>1183</v>
+        <v>1586</v>
       </c>
       <c r="G340" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -13023,10 +13329,10 @@
         <v>1320</v>
       </c>
       <c r="F341" t="s">
-        <v>1353</v>
+        <v>1587</v>
       </c>
       <c r="G341" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -13046,10 +13352,10 @@
         <v>1309</v>
       </c>
       <c r="F342" t="s">
-        <v>1429</v>
+        <v>1588</v>
       </c>
       <c r="G342" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -13069,10 +13375,10 @@
         <v>1309</v>
       </c>
       <c r="F343" t="s">
-        <v>1513</v>
+        <v>1589</v>
       </c>
       <c r="G343" t="s">
-        <v>1580</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -13092,10 +13398,10 @@
         <v>1295</v>
       </c>
       <c r="F344" t="s">
-        <v>1507</v>
+        <v>1574</v>
       </c>
       <c r="G344" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -13115,10 +13421,10 @@
         <v>1274</v>
       </c>
       <c r="F345" t="s">
-        <v>1514</v>
+        <v>1590</v>
       </c>
       <c r="G345" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -13138,10 +13444,10 @@
         <v>1274</v>
       </c>
       <c r="F346" t="s">
-        <v>1515</v>
+        <v>1591</v>
       </c>
       <c r="G346" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -13161,10 +13467,10 @@
         <v>1315</v>
       </c>
       <c r="F347" t="s">
-        <v>1516</v>
+        <v>1592</v>
       </c>
       <c r="G347" t="s">
-        <v>1596</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -13184,10 +13490,10 @@
         <v>1274</v>
       </c>
       <c r="F348" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G348" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -13207,10 +13513,10 @@
         <v>1298</v>
       </c>
       <c r="F349" t="s">
-        <v>1517</v>
+        <v>1593</v>
       </c>
       <c r="G349" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -13230,10 +13536,10 @@
         <v>1322</v>
       </c>
       <c r="F350" t="s">
-        <v>1362</v>
+        <v>1594</v>
       </c>
       <c r="G350" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -13253,10 +13559,10 @@
         <v>1277</v>
       </c>
       <c r="F351" t="s">
-        <v>1518</v>
+        <v>1482</v>
       </c>
       <c r="G351" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -13276,10 +13582,10 @@
         <v>1298</v>
       </c>
       <c r="F352" t="s">
-        <v>1519</v>
+        <v>1595</v>
       </c>
       <c r="G352" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13299,10 +13605,10 @@
         <v>1274</v>
       </c>
       <c r="F353" t="s">
-        <v>951</v>
+        <v>1596</v>
       </c>
       <c r="G353" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -13325,7 +13631,7 @@
         <v>954</v>
       </c>
       <c r="G354" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13345,10 +13651,10 @@
         <v>1296</v>
       </c>
       <c r="F355" t="s">
-        <v>1092</v>
+        <v>1597</v>
       </c>
       <c r="G355" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13368,10 +13674,10 @@
         <v>1274</v>
       </c>
       <c r="F356" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G356" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13391,10 +13697,10 @@
         <v>1277</v>
       </c>
       <c r="F357" t="s">
-        <v>1374</v>
+        <v>1544</v>
       </c>
       <c r="G357" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13414,10 +13720,10 @@
         <v>1320</v>
       </c>
       <c r="F358" t="s">
-        <v>1520</v>
+        <v>1598</v>
       </c>
       <c r="G358" t="s">
-        <v>1584</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13437,10 +13743,10 @@
         <v>1283</v>
       </c>
       <c r="F359" t="s">
-        <v>971</v>
+        <v>1599</v>
       </c>
       <c r="G359" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13460,10 +13766,10 @@
         <v>1283</v>
       </c>
       <c r="F360" t="s">
-        <v>1521</v>
+        <v>1600</v>
       </c>
       <c r="G360" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13483,10 +13789,10 @@
         <v>1323</v>
       </c>
       <c r="F361" t="s">
-        <v>1522</v>
+        <v>1601</v>
       </c>
       <c r="G361" t="s">
-        <v>1597</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13506,10 +13812,10 @@
         <v>1296</v>
       </c>
       <c r="F362" t="s">
-        <v>1346</v>
+        <v>1602</v>
       </c>
       <c r="G362" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13529,10 +13835,10 @@
         <v>1283</v>
       </c>
       <c r="F363" t="s">
-        <v>1523</v>
+        <v>1603</v>
       </c>
       <c r="G363" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13552,10 +13858,10 @@
         <v>1277</v>
       </c>
       <c r="F364" t="s">
-        <v>1386</v>
+        <v>1604</v>
       </c>
       <c r="G364" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13575,10 +13881,10 @@
         <v>1296</v>
       </c>
       <c r="F365" t="s">
-        <v>1406</v>
+        <v>1605</v>
       </c>
       <c r="G365" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13598,10 +13904,10 @@
         <v>1284</v>
       </c>
       <c r="F366" t="s">
-        <v>1524</v>
+        <v>1606</v>
       </c>
       <c r="G366" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13621,10 +13927,10 @@
         <v>1277</v>
       </c>
       <c r="F367" t="s">
-        <v>1486</v>
+        <v>1607</v>
       </c>
       <c r="G367" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13644,10 +13950,10 @@
         <v>1277</v>
       </c>
       <c r="F368" t="s">
-        <v>1525</v>
+        <v>1608</v>
       </c>
       <c r="G368" t="s">
-        <v>1598</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13667,10 +13973,10 @@
         <v>1292</v>
       </c>
       <c r="F369" t="s">
-        <v>1506</v>
+        <v>1609</v>
       </c>
       <c r="G369" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13690,10 +13996,10 @@
         <v>1283</v>
       </c>
       <c r="F370" t="s">
-        <v>1526</v>
+        <v>1610</v>
       </c>
       <c r="G370" t="s">
-        <v>1573</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13713,10 +14019,10 @@
         <v>1277</v>
       </c>
       <c r="F371" t="s">
-        <v>1527</v>
+        <v>1409</v>
       </c>
       <c r="G371" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13736,10 +14042,10 @@
         <v>1296</v>
       </c>
       <c r="F372" t="s">
-        <v>1372</v>
+        <v>1611</v>
       </c>
       <c r="G372" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13759,10 +14065,10 @@
         <v>1320</v>
       </c>
       <c r="F373" t="s">
-        <v>1528</v>
+        <v>1612</v>
       </c>
       <c r="G373" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13782,10 +14088,10 @@
         <v>1283</v>
       </c>
       <c r="F374" t="s">
-        <v>1529</v>
+        <v>1613</v>
       </c>
       <c r="G374" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -13805,10 +14111,10 @@
         <v>1277</v>
       </c>
       <c r="F375" t="s">
-        <v>1530</v>
+        <v>1614</v>
       </c>
       <c r="G375" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -13828,10 +14134,10 @@
         <v>1283</v>
       </c>
       <c r="F376" t="s">
-        <v>1531</v>
+        <v>1615</v>
       </c>
       <c r="G376" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -13851,10 +14157,10 @@
         <v>1283</v>
       </c>
       <c r="F377" t="s">
-        <v>1532</v>
+        <v>1616</v>
       </c>
       <c r="G377" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -13874,7 +14180,7 @@
         <v>1283</v>
       </c>
       <c r="G378" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -13894,10 +14200,10 @@
         <v>1283</v>
       </c>
       <c r="F379" t="s">
-        <v>1118</v>
+        <v>1617</v>
       </c>
       <c r="G379" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -13917,10 +14223,10 @@
         <v>1277</v>
       </c>
       <c r="F380" t="s">
-        <v>1496</v>
+        <v>1618</v>
       </c>
       <c r="G380" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -13940,10 +14246,10 @@
         <v>1277</v>
       </c>
       <c r="F381" t="s">
-        <v>1485</v>
+        <v>1619</v>
       </c>
       <c r="G381" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -13963,10 +14269,10 @@
         <v>1283</v>
       </c>
       <c r="F382" t="s">
-        <v>1533</v>
+        <v>1620</v>
       </c>
       <c r="G382" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -13986,10 +14292,10 @@
         <v>1324</v>
       </c>
       <c r="F383" t="s">
-        <v>1534</v>
+        <v>1621</v>
       </c>
       <c r="G383" t="s">
-        <v>1582</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -14009,10 +14315,10 @@
         <v>1283</v>
       </c>
       <c r="F384" t="s">
-        <v>1535</v>
+        <v>1068</v>
       </c>
       <c r="G384" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -14032,10 +14338,10 @@
         <v>1320</v>
       </c>
       <c r="F385" t="s">
-        <v>1353</v>
+        <v>1518</v>
       </c>
       <c r="G385" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -14055,10 +14361,10 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1536</v>
+        <v>1622</v>
       </c>
       <c r="G386" t="s">
-        <v>1599</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -14078,10 +14384,10 @@
         <v>1326</v>
       </c>
       <c r="F387" t="s">
-        <v>1537</v>
+        <v>1623</v>
       </c>
       <c r="G387" t="s">
-        <v>1590</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -14101,10 +14407,10 @@
         <v>1327</v>
       </c>
       <c r="F388" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="G388" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -14124,10 +14430,10 @@
         <v>1277</v>
       </c>
       <c r="F389" t="s">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="G389" t="s">
-        <v>1589</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -14147,10 +14453,10 @@
         <v>1323</v>
       </c>
       <c r="F390" t="s">
-        <v>1539</v>
+        <v>1624</v>
       </c>
       <c r="G390" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -14173,7 +14479,7 @@
         <v>999</v>
       </c>
       <c r="G391" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -14193,10 +14499,10 @@
         <v>1281</v>
       </c>
       <c r="F392" t="s">
-        <v>1540</v>
+        <v>1625</v>
       </c>
       <c r="G392" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -14216,10 +14522,10 @@
         <v>1283</v>
       </c>
       <c r="F393" t="s">
-        <v>1429</v>
+        <v>1465</v>
       </c>
       <c r="G393" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -14239,10 +14545,10 @@
         <v>1293</v>
       </c>
       <c r="F394" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G394" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -14265,7 +14571,7 @@
         <v>971</v>
       </c>
       <c r="G395" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -14285,10 +14591,10 @@
         <v>1283</v>
       </c>
       <c r="F396" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G396" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -14308,10 +14614,10 @@
         <v>1277</v>
       </c>
       <c r="F397" t="s">
-        <v>1352</v>
+        <v>1626</v>
       </c>
       <c r="G397" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -14331,10 +14637,10 @@
         <v>1283</v>
       </c>
       <c r="F398" t="s">
-        <v>1092</v>
+        <v>1627</v>
       </c>
       <c r="G398" t="s">
-        <v>1584</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -14354,10 +14660,10 @@
         <v>1283</v>
       </c>
       <c r="F399" t="s">
-        <v>1506</v>
+        <v>1628</v>
       </c>
       <c r="G399" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -14377,10 +14683,10 @@
         <v>1283</v>
       </c>
       <c r="F400" t="s">
-        <v>1068</v>
+        <v>1629</v>
       </c>
       <c r="G400" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14400,10 +14706,10 @@
         <v>1277</v>
       </c>
       <c r="F401" t="s">
-        <v>1496</v>
+        <v>1630</v>
       </c>
       <c r="G401" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14423,10 +14729,10 @@
         <v>1292</v>
       </c>
       <c r="F402" t="s">
-        <v>1541</v>
+        <v>1092</v>
       </c>
       <c r="G402" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14446,10 +14752,10 @@
         <v>1283</v>
       </c>
       <c r="F403" t="s">
-        <v>1542</v>
+        <v>971</v>
       </c>
       <c r="G403" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14469,10 +14775,10 @@
         <v>1302</v>
       </c>
       <c r="F404" t="s">
-        <v>1538</v>
+        <v>1631</v>
       </c>
       <c r="G404" t="s">
-        <v>1600</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14491,8 +14797,11 @@
       <c r="E405" t="s">
         <v>1292</v>
       </c>
+      <c r="F405" t="s">
+        <v>1632</v>
+      </c>
       <c r="G405" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14512,10 +14821,10 @@
         <v>1292</v>
       </c>
       <c r="F406" t="s">
-        <v>1543</v>
+        <v>1227</v>
       </c>
       <c r="G406" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14535,10 +14844,10 @@
         <v>1283</v>
       </c>
       <c r="F407" t="s">
-        <v>1432</v>
+        <v>1526</v>
       </c>
       <c r="G407" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14558,10 +14867,10 @@
         <v>1277</v>
       </c>
       <c r="F408" t="s">
-        <v>1544</v>
+        <v>1455</v>
       </c>
       <c r="G408" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14581,10 +14890,10 @@
         <v>1323</v>
       </c>
       <c r="F409" t="s">
-        <v>1545</v>
+        <v>1633</v>
       </c>
       <c r="G409" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14604,10 +14913,10 @@
         <v>1283</v>
       </c>
       <c r="F410" t="s">
-        <v>1092</v>
+        <v>1634</v>
       </c>
       <c r="G410" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14627,10 +14936,10 @@
         <v>1292</v>
       </c>
       <c r="F411" t="s">
-        <v>1546</v>
+        <v>1635</v>
       </c>
       <c r="G411" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14650,10 +14959,10 @@
         <v>1283</v>
       </c>
       <c r="F412" t="s">
-        <v>1432</v>
+        <v>1636</v>
       </c>
       <c r="G412" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14673,10 +14982,10 @@
         <v>1283</v>
       </c>
       <c r="F413" t="s">
-        <v>971</v>
+        <v>1637</v>
       </c>
       <c r="G413" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14699,7 +15008,7 @@
         <v>1234</v>
       </c>
       <c r="G414" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14719,10 +15028,10 @@
         <v>1322</v>
       </c>
       <c r="F415" t="s">
-        <v>1547</v>
+        <v>1638</v>
       </c>
       <c r="G415" t="s">
-        <v>1587</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14742,10 +15051,10 @@
         <v>1283</v>
       </c>
       <c r="F416" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="G416" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14765,10 +15074,10 @@
         <v>1310</v>
       </c>
       <c r="F417" t="s">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="G417" t="s">
-        <v>1586</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -14788,10 +15097,10 @@
         <v>1283</v>
       </c>
       <c r="F418" t="s">
-        <v>1548</v>
+        <v>1639</v>
       </c>
       <c r="G418" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -14811,10 +15120,10 @@
         <v>1328</v>
       </c>
       <c r="F419" t="s">
-        <v>1549</v>
+        <v>1640</v>
       </c>
       <c r="G419" t="s">
-        <v>1601</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -14834,10 +15143,10 @@
         <v>1283</v>
       </c>
       <c r="F420" t="s">
-        <v>1356</v>
+        <v>1641</v>
       </c>
       <c r="G420" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -14857,10 +15166,10 @@
         <v>1283</v>
       </c>
       <c r="F421" t="s">
-        <v>1550</v>
+        <v>1642</v>
       </c>
       <c r="G421" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -14880,10 +15189,10 @@
         <v>1329</v>
       </c>
       <c r="F422" t="s">
-        <v>1409</v>
+        <v>1430</v>
       </c>
       <c r="G422" t="s">
-        <v>1588</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -14903,10 +15212,10 @@
         <v>1293</v>
       </c>
       <c r="F423" t="s">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="G423" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -14926,10 +15235,10 @@
         <v>1283</v>
       </c>
       <c r="F424" t="s">
-        <v>1551</v>
+        <v>1643</v>
       </c>
       <c r="G424" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -14949,10 +15258,10 @@
         <v>1292</v>
       </c>
       <c r="F425" t="s">
-        <v>1552</v>
+        <v>1644</v>
       </c>
       <c r="G425" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -14972,10 +15281,10 @@
         <v>1284</v>
       </c>
       <c r="F426" t="s">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="G426" t="s">
-        <v>1575</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -14998,7 +15307,7 @@
         <v>1068</v>
       </c>
       <c r="G427" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -15021,7 +15330,7 @@
         <v>1245</v>
       </c>
       <c r="G428" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -15041,10 +15350,10 @@
         <v>1296</v>
       </c>
       <c r="F429" t="s">
-        <v>1535</v>
+        <v>1068</v>
       </c>
       <c r="G429" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15064,10 +15373,10 @@
         <v>1328</v>
       </c>
       <c r="F430" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G430" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15087,10 +15396,10 @@
         <v>1283</v>
       </c>
       <c r="F431" t="s">
-        <v>1553</v>
+        <v>1456</v>
       </c>
       <c r="G431" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15110,10 +15419,10 @@
         <v>1277</v>
       </c>
       <c r="F432" t="s">
-        <v>1353</v>
+        <v>1645</v>
       </c>
       <c r="G432" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15133,10 +15442,10 @@
         <v>1283</v>
       </c>
       <c r="F433" t="s">
-        <v>1433</v>
+        <v>1646</v>
       </c>
       <c r="G433" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15156,10 +15465,10 @@
         <v>1292</v>
       </c>
       <c r="F434" t="s">
-        <v>1450</v>
+        <v>1647</v>
       </c>
       <c r="G434" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15179,10 +15488,10 @@
         <v>1295</v>
       </c>
       <c r="F435" t="s">
-        <v>1554</v>
+        <v>1648</v>
       </c>
       <c r="G435" t="s">
-        <v>1602</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15202,10 +15511,10 @@
         <v>1295</v>
       </c>
       <c r="F436" t="s">
-        <v>1092</v>
+        <v>1649</v>
       </c>
       <c r="G436" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15225,10 +15534,10 @@
         <v>1292</v>
       </c>
       <c r="F437" t="s">
-        <v>971</v>
+        <v>1650</v>
       </c>
       <c r="G437" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15248,10 +15557,10 @@
         <v>1292</v>
       </c>
       <c r="F438" t="s">
-        <v>1555</v>
+        <v>1651</v>
       </c>
       <c r="G438" t="s">
-        <v>1598</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15271,10 +15580,10 @@
         <v>1283</v>
       </c>
       <c r="F439" t="s">
-        <v>1556</v>
+        <v>1652</v>
       </c>
       <c r="G439" t="s">
-        <v>1589</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15297,7 +15606,7 @@
         <v>951</v>
       </c>
       <c r="G440" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15317,10 +15626,10 @@
         <v>1292</v>
       </c>
       <c r="F441" t="s">
-        <v>1433</v>
+        <v>1653</v>
       </c>
       <c r="G441" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15340,10 +15649,10 @@
         <v>1283</v>
       </c>
       <c r="F442" t="s">
-        <v>1092</v>
+        <v>1597</v>
       </c>
       <c r="G442" t="s">
-        <v>1571</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15363,10 +15672,10 @@
         <v>1277</v>
       </c>
       <c r="F443" t="s">
-        <v>1557</v>
+        <v>1614</v>
       </c>
       <c r="G443" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15386,10 +15695,10 @@
         <v>1277</v>
       </c>
       <c r="F444" t="s">
-        <v>1377</v>
+        <v>1654</v>
       </c>
       <c r="G444" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15409,10 +15718,10 @@
         <v>1277</v>
       </c>
       <c r="F445" t="s">
-        <v>1558</v>
+        <v>1655</v>
       </c>
       <c r="G445" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15432,10 +15741,10 @@
         <v>1277</v>
       </c>
       <c r="F446" t="s">
-        <v>1377</v>
+        <v>1654</v>
       </c>
       <c r="G446" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15455,10 +15764,10 @@
         <v>1292</v>
       </c>
       <c r="F447" t="s">
-        <v>1559</v>
+        <v>1656</v>
       </c>
       <c r="G447" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15478,10 +15787,10 @@
         <v>1277</v>
       </c>
       <c r="F448" t="s">
-        <v>1394</v>
+        <v>1657</v>
       </c>
       <c r="G448" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -15501,10 +15810,10 @@
         <v>1330</v>
       </c>
       <c r="F449" t="s">
-        <v>1560</v>
+        <v>1658</v>
       </c>
       <c r="G449" t="s">
-        <v>1603</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15524,10 +15833,10 @@
         <v>1277</v>
       </c>
       <c r="F450" t="s">
-        <v>1386</v>
+        <v>1659</v>
       </c>
       <c r="G450" t="s">
-        <v>1577</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15547,10 +15856,10 @@
         <v>1320</v>
       </c>
       <c r="F451" t="s">
-        <v>1561</v>
+        <v>1660</v>
       </c>
       <c r="G451" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15570,10 +15879,10 @@
         <v>1283</v>
       </c>
       <c r="F452" t="s">
-        <v>1092</v>
+        <v>1661</v>
       </c>
       <c r="G452" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15593,10 +15902,10 @@
         <v>1292</v>
       </c>
       <c r="F453" t="s">
-        <v>1562</v>
+        <v>1662</v>
       </c>
       <c r="G453" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -15616,10 +15925,10 @@
         <v>1320</v>
       </c>
       <c r="F454" t="s">
-        <v>1563</v>
+        <v>1663</v>
       </c>
       <c r="G454" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15639,10 +15948,10 @@
         <v>1292</v>
       </c>
       <c r="F455" t="s">
-        <v>1564</v>
+        <v>1664</v>
       </c>
       <c r="G455" t="s">
-        <v>1572</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15662,10 +15971,10 @@
         <v>1331</v>
       </c>
       <c r="F456" t="s">
-        <v>1565</v>
+        <v>1665</v>
       </c>
       <c r="G456" t="s">
-        <v>1590</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15685,10 +15994,10 @@
         <v>1332</v>
       </c>
       <c r="F457" t="s">
-        <v>1566</v>
+        <v>1666</v>
       </c>
       <c r="G457" t="s">
-        <v>1595</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -15708,10 +16017,10 @@
         <v>1277</v>
       </c>
       <c r="F458" t="s">
-        <v>1567</v>
+        <v>1667</v>
       </c>
       <c r="G458" t="s">
-        <v>1593</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -15731,10 +16040,10 @@
         <v>1277</v>
       </c>
       <c r="F459" t="s">
-        <v>1559</v>
+        <v>1668</v>
       </c>
       <c r="G459" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -15754,10 +16063,10 @@
         <v>1333</v>
       </c>
       <c r="F460" t="s">
-        <v>1568</v>
+        <v>1415</v>
       </c>
       <c r="G460" t="s">
-        <v>1604</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -15777,10 +16086,10 @@
         <v>1292</v>
       </c>
       <c r="F461" t="s">
-        <v>1377</v>
+        <v>1669</v>
       </c>
       <c r="G461" t="s">
-        <v>1569</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -15803,7 +16112,7 @@
         <v>951</v>
       </c>
       <c r="G462" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -15823,10 +16132,10 @@
         <v>1320</v>
       </c>
       <c r="F463" t="s">
-        <v>1507</v>
+        <v>1574</v>
       </c>
       <c r="G463" t="s">
-        <v>1585</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -15849,7 +16158,7 @@
         <v>971</v>
       </c>
       <c r="G464" t="s">
-        <v>1570</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -15869,10 +16178,10 @@
         <v>1334</v>
       </c>
       <c r="F465" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="G465" t="s">
-        <v>1574</v>
+        <v>1675</v>
       </c>
     </row>
   </sheetData>
